--- a/2021/UI.xlsx
+++ b/2021/UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctgovexec.sharepoint.com/sites/DEEPEnergyTechPolicy/BTD/Building  Transportation Documents/C&amp;LM/Equitable Distribution/Old/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctgovexec-my.sharepoint.com/personal/sabrina_xie_ct_gov/Documents/R/CLMEDR/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{9399AF81-13B7-400A-9441-5076E2C28CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122D05E3-FAFC-49E4-86B7-6470D03FECC7}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="2415" windowWidth="21600" windowHeight="11265" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="7" r:id="rId1"/>
@@ -8088,10 +8088,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:O330" totalsRowShown="0" headerRowDxfId="51" tableBorderDxfId="50">
   <autoFilter ref="A1:O330" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
@@ -8195,9 +8191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8235,9 +8231,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8270,26 +8266,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8322,26 +8301,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8521,34 +8483,34 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="114" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="116"/>
     </row>
-    <row r="2" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="117" t="s">
         <v>249</v>
       </c>
       <c r="B2" s="118"/>
       <c r="C2" s="119"/>
     </row>
-    <row r="3" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="120" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="122"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
@@ -8556,12 +8518,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
@@ -8569,23 +8531,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="113" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="113"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
@@ -8593,7 +8555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -8601,7 +8563,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>34</v>
       </c>
@@ -8639,24 +8601,24 @@
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="130" t="s">
         <v>21</v>
       </c>
@@ -8676,7 +8638,7 @@
       <c r="I2" s="128"/>
       <c r="J2" s="129"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="131"/>
       <c r="B3" s="25" t="s">
         <v>36</v>
@@ -8706,7 +8668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>19</v>
       </c>
@@ -8747,7 +8709,7 @@
         <v>8539087.3073153365</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>35</v>
       </c>
@@ -8788,7 +8750,7 @@
         <v>9193468.4000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>56</v>
       </c>
@@ -8802,7 +8764,7 @@
       <c r="I7" s="108"/>
       <c r="J7" s="108"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -8842,33 +8804,33 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E336" sqref="E336"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="20" style="73" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="34.453125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.54296875" customWidth="1"/>
-    <col min="11" max="11" width="49.26953125" customWidth="1"/>
-    <col min="12" max="12" width="22.7265625" customWidth="1"/>
-    <col min="13" max="13" width="32.7265625" customWidth="1"/>
-    <col min="14" max="14" width="31.26953125" customWidth="1"/>
-    <col min="15" max="15" width="41.26953125" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" customWidth="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1"/>
-    <col min="19" max="19" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" customWidth="1"/>
+    <col min="15" max="15" width="41.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8915,7 +8877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
         <v>227</v>
       </c>
@@ -8970,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>228</v>
       </c>
@@ -9025,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="s">
         <v>60</v>
       </c>
@@ -9080,7 +9042,7 @@
         <v>7.5639282678820652E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
         <v>60</v>
       </c>
@@ -9135,7 +9097,7 @@
         <v>4.9891877705233343E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>60</v>
       </c>
@@ -9190,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>62</v>
       </c>
@@ -9245,7 +9207,7 @@
         <v>2.2967457572175068E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>63</v>
       </c>
@@ -9300,7 +9262,7 @@
         <v>1.9189809508323211E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>64</v>
       </c>
@@ -9355,7 +9317,7 @@
         <v>1.3162442327319995E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>65</v>
       </c>
@@ -9410,7 +9372,7 @@
         <v>4.6690184187509962E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>66</v>
       </c>
@@ -9465,7 +9427,7 @@
         <v>3.7931010149372495E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>67</v>
       </c>
@@ -9520,7 +9482,7 @@
         <v>9.1415599415966794E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>229</v>
       </c>
@@ -9575,7 +9537,7 @@
         <v>3.5061740473410718E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>68</v>
       </c>
@@ -9630,7 +9592,7 @@
         <v>7.3987104632878978E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
         <v>69</v>
       </c>
@@ -9685,7 +9647,7 @@
         <v>2.9244548616771827E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
         <v>70</v>
       </c>
@@ -9740,7 +9702,7 @@
         <v>1.7492609108940519E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
         <v>230</v>
       </c>
@@ -9795,7 +9757,7 @@
         <v>2.9661898392734619E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
         <v>71</v>
       </c>
@@ -9850,7 +9812,7 @@
         <v>2.0353752964820228E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>72</v>
       </c>
@@ -9905,7 +9867,7 @@
         <v>5.3581904606566522E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
         <v>73</v>
       </c>
@@ -9960,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
         <v>73</v>
       </c>
@@ -10015,7 +9977,7 @@
         <v>2.4501493233207734E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
         <v>74</v>
       </c>
@@ -10070,7 +10032,7 @@
         <v>1.2578223031814745E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="s">
         <v>75</v>
       </c>
@@ -10125,7 +10087,7 @@
         <v>3.730288610941926E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
         <v>77</v>
       </c>
@@ -10180,7 +10142,7 @@
         <v>8.2778735641579821E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="64" t="s">
         <v>78</v>
       </c>
@@ -10235,7 +10197,7 @@
         <v>1.0265263299708558E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="s">
         <v>79</v>
       </c>
@@ -10290,7 +10252,7 @@
         <v>4.0782817956647275E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
         <v>79</v>
       </c>
@@ -10345,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="64" t="s">
         <v>80</v>
       </c>
@@ -10400,7 +10362,7 @@
         <v>5.4331758494550076E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="64" t="s">
         <v>81</v>
       </c>
@@ -10455,7 +10417,7 @@
         <v>5.581777092937586E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="64" t="s">
         <v>82</v>
       </c>
@@ -10510,7 +10472,7 @@
         <v>4.9573708009109619E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="64" t="s">
         <v>83</v>
       </c>
@@ -10565,7 +10527,7 @@
         <v>1.8655820871152024E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="64" t="s">
         <v>84</v>
       </c>
@@ -10620,7 +10582,7 @@
         <v>6.0861929317037201E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="64" t="s">
         <v>85</v>
       </c>
@@ -10675,7 +10637,7 @@
         <v>1.3322522835327321E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="64" t="s">
         <v>86</v>
       </c>
@@ -10730,7 +10692,7 @@
         <v>6.2610635436947679E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
         <v>87</v>
       </c>
@@ -10785,7 +10747,7 @@
         <v>9.7231920649025472E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="64" t="s">
         <v>231</v>
       </c>
@@ -10840,7 +10802,7 @@
         <v>2.8071219714587316E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
         <v>88</v>
       </c>
@@ -10895,7 +10857,7 @@
         <v>1.0662264564971918E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
         <v>89</v>
       </c>
@@ -10950,7 +10912,7 @@
         <v>5.6885834648612733E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
         <v>90</v>
       </c>
@@ -11005,7 +10967,7 @@
         <v>7.5732846927835523E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="64" t="s">
         <v>90</v>
       </c>
@@ -11060,7 +11022,7 @@
         <v>2.3939061138431646E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64" t="s">
         <v>91</v>
       </c>
@@ -11115,7 +11077,7 @@
         <v>1.7804934512733177E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="64" t="s">
         <v>91</v>
       </c>
@@ -11170,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="s">
         <v>92</v>
       </c>
@@ -11225,7 +11187,7 @@
         <v>9.5365853235574078E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
         <v>93</v>
       </c>
@@ -11280,7 +11242,7 @@
         <v>7.7159200036192488E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>94</v>
       </c>
@@ -11335,7 +11297,7 @@
         <v>1.5505799789110083E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>94</v>
       </c>
@@ -11390,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
         <v>95</v>
       </c>
@@ -11445,7 +11407,7 @@
         <v>3.3070846632315626E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="s">
         <v>95</v>
       </c>
@@ -11500,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="64" t="s">
         <v>96</v>
       </c>
@@ -11555,7 +11517,7 @@
         <v>1.6808799120347372E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="64" t="s">
         <v>96</v>
       </c>
@@ -11610,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
         <v>97</v>
       </c>
@@ -11665,7 +11627,7 @@
         <v>1.4451218386096008E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="64" t="s">
         <v>98</v>
       </c>
@@ -11720,7 +11682,7 @@
         <v>2.2252045800010473E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="s">
         <v>98</v>
       </c>
@@ -11775,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="64" t="s">
         <v>98</v>
       </c>
@@ -11830,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="64" t="s">
         <v>99</v>
       </c>
@@ -11885,7 +11847,7 @@
         <v>1.1724891517808894E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64" t="s">
         <v>99</v>
       </c>
@@ -11940,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="64" t="s">
         <v>100</v>
       </c>
@@ -11995,7 +11957,7 @@
         <v>4.6359501592908806E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64" t="s">
         <v>100</v>
       </c>
@@ -12050,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="64" t="s">
         <v>232</v>
       </c>
@@ -12105,7 +12067,7 @@
         <v>3.4051878866706953E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="64" t="s">
         <v>232</v>
       </c>
@@ -12160,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="64" t="s">
         <v>101</v>
       </c>
@@ -12215,7 +12177,7 @@
         <v>2.8024891425775952E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="64" t="s">
         <v>102</v>
       </c>
@@ -12270,7 +12232,7 @@
         <v>5.1456869900446444E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="64" t="s">
         <v>103</v>
       </c>
@@ -12325,7 +12287,7 @@
         <v>4.2874413925187988E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="64" t="s">
         <v>104</v>
       </c>
@@ -12380,7 +12342,7 @@
         <v>3.1133746214134654E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="64" t="s">
         <v>105</v>
       </c>
@@ -12435,7 +12397,7 @@
         <v>1.3750986954867408E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="64" t="s">
         <v>105</v>
       </c>
@@ -12490,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64" t="s">
         <v>106</v>
       </c>
@@ -12545,7 +12507,7 @@
         <v>8.2716896668842807E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="64" t="s">
         <v>107</v>
       </c>
@@ -12600,7 +12562,7 @@
         <v>7.093800796515421E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="64" t="s">
         <v>108</v>
       </c>
@@ -12655,7 +12617,7 @@
         <v>1.0318883832833696E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64" t="s">
         <v>108</v>
       </c>
@@ -12710,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="64" t="s">
         <v>109</v>
       </c>
@@ -12765,7 +12727,7 @@
         <v>1.4794330521597778E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64" t="s">
         <v>109</v>
       </c>
@@ -12820,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="64" t="s">
         <v>110</v>
       </c>
@@ -12875,7 +12837,7 @@
         <v>2.3065152652219497E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="64" t="s">
         <v>111</v>
       </c>
@@ -12930,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="64" t="s">
         <v>111</v>
       </c>
@@ -12985,7 +12947,7 @@
         <v>1.422574849004225E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="64" t="s">
         <v>112</v>
       </c>
@@ -13040,7 +13002,7 @@
         <v>9.9216170582515483E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="64" t="s">
         <v>113</v>
       </c>
@@ -13095,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="64" t="s">
         <v>113</v>
       </c>
@@ -13150,7 +13112,7 @@
         <v>1.1749162465595818E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="64" t="s">
         <v>114</v>
       </c>
@@ -13205,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="64" t="s">
         <v>114</v>
       </c>
@@ -13260,7 +13222,7 @@
         <v>1.0293507934056131E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="64" t="s">
         <v>115</v>
       </c>
@@ -13315,7 +13277,7 @@
         <v>7.1862412619019215E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="64" t="s">
         <v>116</v>
       </c>
@@ -13370,7 +13332,7 @@
         <v>9.1914324710821364E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="64" t="s">
         <v>117</v>
       </c>
@@ -13425,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="64" t="s">
         <v>117</v>
       </c>
@@ -13480,7 +13442,7 @@
         <v>1.4123697204779051E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64" t="s">
         <v>233</v>
       </c>
@@ -13535,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="64" t="s">
         <v>233</v>
       </c>
@@ -13590,7 +13552,7 @@
         <v>2.3372915000510145E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="64" t="s">
         <v>118</v>
       </c>
@@ -13645,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="64" t="s">
         <v>118</v>
       </c>
@@ -13700,7 +13662,7 @@
         <v>1.087808659333704E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="64" t="s">
         <v>119</v>
       </c>
@@ -13755,7 +13717,7 @@
         <v>2.7840708228794196E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="64" t="s">
         <v>119</v>
       </c>
@@ -13810,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64" t="s">
         <v>120</v>
       </c>
@@ -13865,7 +13827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>120</v>
       </c>
@@ -13920,7 +13882,7 @@
         <v>3.0925867854109637E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>121</v>
       </c>
@@ -13975,7 +13937,7 @@
         <v>1.9084306601915733E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="64" t="s">
         <v>122</v>
       </c>
@@ -14030,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="64" t="s">
         <v>122</v>
       </c>
@@ -14085,7 +14047,7 @@
         <v>3.0969145873072554E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
         <v>123</v>
       </c>
@@ -14140,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>123</v>
       </c>
@@ -14195,7 +14157,7 @@
         <v>4.1316615180123526E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="64" t="s">
         <v>124</v>
       </c>
@@ -14250,7 +14212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="64" t="s">
         <v>124</v>
       </c>
@@ -14305,7 +14267,7 @@
         <v>4.90605402422399E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="64" t="s">
         <v>125</v>
       </c>
@@ -14360,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="64" t="s">
         <v>125</v>
       </c>
@@ -14415,7 +14377,7 @@
         <v>7.7947500291000527E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="64" t="s">
         <v>126</v>
       </c>
@@ -14470,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="64" t="s">
         <v>126</v>
       </c>
@@ -14525,7 +14487,7 @@
         <v>1.8678271845178163E-5</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="64" t="s">
         <v>126</v>
       </c>
@@ -14580,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="64" t="s">
         <v>126</v>
       </c>
@@ -14635,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="64" t="s">
         <v>126</v>
       </c>
@@ -14690,7 +14652,7 @@
         <v>5.5449225470988036E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="64" t="s">
         <v>127</v>
       </c>
@@ -14745,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="64" t="s">
         <v>127</v>
       </c>
@@ -14800,7 +14762,7 @@
         <v>5.0499248795873638E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="64" t="s">
         <v>128</v>
       </c>
@@ -14855,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="64" t="s">
         <v>128</v>
       </c>
@@ -14910,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="64" t="s">
         <v>128</v>
       </c>
@@ -14965,7 +14927,7 @@
         <v>5.2264299175478063E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="64" t="s">
         <v>234</v>
       </c>
@@ -15020,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="64" t="s">
         <v>234</v>
       </c>
@@ -15075,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64" t="s">
         <v>235</v>
       </c>
@@ -15130,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64" t="s">
         <v>129</v>
       </c>
@@ -15185,7 +15147,7 @@
         <v>1.4917671949446823E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="64" t="s">
         <v>129</v>
       </c>
@@ -15240,7 +15202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="64" t="s">
         <v>129</v>
       </c>
@@ -15295,7 +15257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="64" t="s">
         <v>130</v>
       </c>
@@ -15350,7 +15312,7 @@
         <v>6.4577124031937614E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="64" t="s">
         <v>130</v>
       </c>
@@ -15405,7 +15367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="64" t="s">
         <v>131</v>
       </c>
@@ -15460,7 +15422,7 @@
         <v>9.2369512652029535E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="64" t="s">
         <v>132</v>
       </c>
@@ -15515,7 +15477,7 @@
         <v>1.029408958470334E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="64" t="s">
         <v>133</v>
       </c>
@@ -15570,7 +15532,7 @@
         <v>5.3990041826630798E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="64" t="s">
         <v>133</v>
       </c>
@@ -15625,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="64" t="s">
         <v>134</v>
       </c>
@@ -15680,7 +15642,7 @@
         <v>2.8505222482010087E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="64" t="s">
         <v>135</v>
       </c>
@@ -15735,7 +15697,7 @@
         <v>3.228071559813501E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="64" t="s">
         <v>135</v>
       </c>
@@ -15790,7 +15752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="64" t="s">
         <v>135</v>
       </c>
@@ -15845,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="64" t="s">
         <v>236</v>
       </c>
@@ -15900,7 +15862,7 @@
         <v>5.8313169523985702E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="64" t="s">
         <v>136</v>
       </c>
@@ -15955,7 +15917,7 @@
         <v>3.5566084686407128E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="64" t="s">
         <v>136</v>
       </c>
@@ -16010,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="64" t="s">
         <v>137</v>
       </c>
@@ -16065,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="64" t="s">
         <v>137</v>
       </c>
@@ -16120,7 +16082,7 @@
         <v>2.6268849839104461E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="64" t="s">
         <v>237</v>
       </c>
@@ -16175,7 +16137,7 @@
         <v>7.5991236892101704E-5</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="64" t="s">
         <v>138</v>
       </c>
@@ -16230,7 +16192,7 @@
         <v>3.3648141074308691E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="64" t="s">
         <v>139</v>
       </c>
@@ -16285,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="64" t="s">
         <v>139</v>
       </c>
@@ -16340,7 +16302,7 @@
         <v>5.7288606110583295E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="64" t="s">
         <v>139</v>
       </c>
@@ -16395,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="64" t="s">
         <v>140</v>
       </c>
@@ -16450,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="64" t="s">
         <v>140</v>
       </c>
@@ -16505,7 +16467,7 @@
         <v>7.8207569756073934E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="64" t="s">
         <v>140</v>
       </c>
@@ -16560,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="64" t="s">
         <v>141</v>
       </c>
@@ -16615,7 +16577,7 @@
         <v>1.3280865658136084E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="64" t="s">
         <v>141</v>
       </c>
@@ -16670,7 +16632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="64" t="s">
         <v>142</v>
       </c>
@@ -16725,7 +16687,7 @@
         <v>5.6550243218931595E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="64" t="s">
         <v>143</v>
       </c>
@@ -16780,7 +16742,7 @@
         <v>1.5020661779278771E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="64" t="s">
         <v>144</v>
       </c>
@@ -16835,7 +16797,7 @@
         <v>1.3442628754268306E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="64" t="s">
         <v>238</v>
       </c>
@@ -16890,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="64" t="s">
         <v>239</v>
       </c>
@@ -16945,7 +16907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="64" t="s">
         <v>240</v>
       </c>
@@ -17000,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="64" t="s">
         <v>240</v>
       </c>
@@ -17055,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="64" t="s">
         <v>145</v>
       </c>
@@ -17110,7 +17072,7 @@
         <v>7.6158532461481285E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="64" t="s">
         <v>145</v>
       </c>
@@ -17165,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="64" t="s">
         <v>146</v>
       </c>
@@ -17220,7 +17182,7 @@
         <v>9.9752496319155531E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="64" t="s">
         <v>147</v>
       </c>
@@ -17275,7 +17237,7 @@
         <v>1.1541176358184446E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="64" t="s">
         <v>148</v>
       </c>
@@ -17330,7 +17292,7 @@
         <v>3.4730514510901331E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="64" t="s">
         <v>149</v>
       </c>
@@ -17385,7 +17347,7 @@
         <v>5.9087308252685653E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="64" t="s">
         <v>150</v>
       </c>
@@ -17440,7 +17402,7 @@
         <v>8.0445340953879708E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="64" t="s">
         <v>151</v>
       </c>
@@ -17495,7 +17457,7 @@
         <v>3.450426352347951E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="64" t="s">
         <v>152</v>
       </c>
@@ -17550,7 +17512,7 @@
         <v>4.9552251151370116E-4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="64" t="s">
         <v>152</v>
       </c>
@@ -17605,7 +17567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="64" t="s">
         <v>153</v>
       </c>
@@ -17660,7 +17622,7 @@
         <v>2.0741069314583033E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="64" t="s">
         <v>154</v>
       </c>
@@ -17715,7 +17677,7 @@
         <v>2.7396705639469521E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="64" t="s">
         <v>155</v>
       </c>
@@ -17770,7 +17732,7 @@
         <v>4.8451718112299232E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="64" t="s">
         <v>155</v>
       </c>
@@ -17825,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="64" t="s">
         <v>156</v>
       </c>
@@ -17880,7 +17842,7 @@
         <v>5.4047756142973549E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="64" t="s">
         <v>156</v>
       </c>
@@ -17935,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="64" t="s">
         <v>156</v>
       </c>
@@ -17990,7 +17952,7 @@
         <v>6.1746353207200538E-6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="64" t="s">
         <v>157</v>
       </c>
@@ -18045,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="64" t="s">
         <v>157</v>
       </c>
@@ -18100,7 +18062,7 @@
         <v>3.0327295618801371E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="64" t="s">
         <v>158</v>
       </c>
@@ -18155,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="64" t="s">
         <v>158</v>
       </c>
@@ -18210,7 +18172,7 @@
         <v>7.419506635048084E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="64" t="s">
         <v>159</v>
       </c>
@@ -18265,7 +18227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="64" t="s">
         <v>159</v>
       </c>
@@ -18320,7 +18282,7 @@
         <v>1.2549144821698879E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="64" t="s">
         <v>160</v>
       </c>
@@ -18375,7 +18337,7 @@
         <v>7.6145182899917891E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="64" t="s">
         <v>161</v>
       </c>
@@ -18430,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="64" t="s">
         <v>161</v>
       </c>
@@ -18485,7 +18447,7 @@
         <v>4.0705511522431861E-4</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="64" t="s">
         <v>162</v>
       </c>
@@ -18540,7 +18502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="64" t="s">
         <v>162</v>
       </c>
@@ -18595,7 +18557,7 @@
         <v>1.9005045895621306E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="64" t="s">
         <v>163</v>
       </c>
@@ -18650,7 +18612,7 @@
         <v>1.7555263133539863E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="64" t="s">
         <v>164</v>
       </c>
@@ -18705,7 +18667,7 @@
         <v>8.2033518904722118E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="64" t="s">
         <v>165</v>
       </c>
@@ -18760,7 +18722,7 @@
         <v>1.2837999201710422E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="64" t="s">
         <v>166</v>
       </c>
@@ -18815,7 +18777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="64" t="s">
         <v>166</v>
       </c>
@@ -18870,7 +18832,7 @@
         <v>1.9036391431826944E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="64" t="s">
         <v>167</v>
       </c>
@@ -18925,7 +18887,7 @@
         <v>1.537419669920192E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="64" t="s">
         <v>168</v>
       </c>
@@ -18980,7 +18942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="64" t="s">
         <v>168</v>
       </c>
@@ -19035,7 +18997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="64" t="s">
         <v>168</v>
       </c>
@@ -19090,7 +19052,7 @@
         <v>2.1897655693095407E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="64" t="s">
         <v>169</v>
       </c>
@@ -19145,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="64" t="s">
         <v>169</v>
       </c>
@@ -19200,7 +19162,7 @@
         <v>2.8473262569590047E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="64" t="s">
         <v>169</v>
       </c>
@@ -19255,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="64" t="s">
         <v>170</v>
       </c>
@@ -19310,7 +19272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="64" t="s">
         <v>170</v>
       </c>
@@ -19365,7 +19327,7 @@
         <v>1.0189562270676534E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="64" t="s">
         <v>171</v>
       </c>
@@ -19420,7 +19382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="64" t="s">
         <v>171</v>
       </c>
@@ -19475,7 +19437,7 @@
         <v>8.3847163664300625E-4</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="64" t="s">
         <v>171</v>
       </c>
@@ -19530,7 +19492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="64" t="s">
         <v>172</v>
       </c>
@@ -19585,7 +19547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="64" t="s">
         <v>172</v>
       </c>
@@ -19640,7 +19602,7 @@
         <v>3.7420025116088646E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="64" t="s">
         <v>173</v>
       </c>
@@ -19695,7 +19657,7 @@
         <v>4.5630555020121198E-7</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="64" t="s">
         <v>173</v>
       </c>
@@ -19750,7 +19712,7 @@
         <v>1.9700133855627745E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="64" t="s">
         <v>174</v>
       </c>
@@ -19805,7 +19767,7 @@
         <v>1.1526229418463577E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="64" t="s">
         <v>175</v>
       </c>
@@ -19860,7 +19822,7 @@
         <v>6.6544878427168299E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="64" t="s">
         <v>176</v>
       </c>
@@ -19915,7 +19877,7 @@
         <v>6.7355157296400429E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="64" t="s">
         <v>241</v>
       </c>
@@ -19970,7 +19932,7 @@
         <v>1.7078337388685106E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="64" t="s">
         <v>177</v>
       </c>
@@ -20025,7 +19987,7 @@
         <v>1.9289607051694352E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="64" t="s">
         <v>178</v>
       </c>
@@ -20080,7 +20042,7 @@
         <v>5.4034591820469793E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="64" t="s">
         <v>179</v>
       </c>
@@ -20135,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="64" t="s">
         <v>179</v>
       </c>
@@ -20190,7 +20152,7 @@
         <v>1.5598925639017183E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="64" t="s">
         <v>179</v>
       </c>
@@ -20245,7 +20207,7 @@
         <v>6.3513842567756654E-5</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="64" t="s">
         <v>180</v>
       </c>
@@ -20300,7 +20262,7 @@
         <v>1.6513373693427522E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="64" t="s">
         <v>181</v>
       </c>
@@ -20355,7 +20317,7 @@
         <v>3.3840314249395462E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="64" t="s">
         <v>182</v>
       </c>
@@ -20410,7 +20372,7 @@
         <v>9.0592705766774444E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="64" t="s">
         <v>183</v>
       </c>
@@ -20465,7 +20427,7 @@
         <v>1.056238366402395E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="64" t="s">
         <v>184</v>
       </c>
@@ -20520,7 +20482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="64" t="s">
         <v>184</v>
       </c>
@@ -20575,7 +20537,7 @@
         <v>2.0363181632954966E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="64" t="s">
         <v>184</v>
       </c>
@@ -20630,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="64" t="s">
         <v>184</v>
       </c>
@@ -20685,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="66" t="s">
         <v>185</v>
       </c>
@@ -20740,7 +20702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="66" t="s">
         <v>185</v>
       </c>
@@ -20795,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="66" t="s">
         <v>185</v>
       </c>
@@ -20850,7 +20812,7 @@
         <v>8.879019387467919E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="66" t="s">
         <v>186</v>
       </c>
@@ -20905,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="66" t="s">
         <v>186</v>
       </c>
@@ -20960,7 +20922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="66" t="s">
         <v>186</v>
       </c>
@@ -21015,7 +20977,7 @@
         <v>7.3249979755609096E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="66" t="s">
         <v>187</v>
       </c>
@@ -21070,7 +21032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="66" t="s">
         <v>187</v>
       </c>
@@ -21125,7 +21087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="66" t="s">
         <v>187</v>
       </c>
@@ -21180,7 +21142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="66" t="s">
         <v>187</v>
       </c>
@@ -21235,7 +21197,7 @@
         <v>1.011657499386796E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="66" t="s">
         <v>188</v>
       </c>
@@ -21290,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="66" t="s">
         <v>188</v>
       </c>
@@ -21345,7 +21307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="66" t="s">
         <v>188</v>
       </c>
@@ -21400,7 +21362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="66" t="s">
         <v>188</v>
       </c>
@@ -21455,7 +21417,7 @@
         <v>9.9125786270690772E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="66" t="s">
         <v>189</v>
       </c>
@@ -21510,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="66" t="s">
         <v>189</v>
       </c>
@@ -21565,7 +21527,7 @@
         <v>6.3297770466661032E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="66" t="s">
         <v>242</v>
       </c>
@@ -21620,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="66" t="s">
         <v>242</v>
       </c>
@@ -21675,7 +21637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="66" t="s">
         <v>242</v>
       </c>
@@ -21730,7 +21692,7 @@
         <v>2.325372910223195E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="66" t="s">
         <v>190</v>
       </c>
@@ -21785,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="66" t="s">
         <v>190</v>
       </c>
@@ -21840,7 +21802,7 @@
         <v>2.1956963065350929E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="66" t="s">
         <v>191</v>
       </c>
@@ -21895,7 +21857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="66" t="s">
         <v>191</v>
       </c>
@@ -21950,7 +21912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="66" t="s">
         <v>191</v>
       </c>
@@ -22005,7 +21967,7 @@
         <v>1.9194906669780475E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="66" t="s">
         <v>192</v>
       </c>
@@ -22060,7 +22022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="66" t="s">
         <v>192</v>
       </c>
@@ -22115,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="66" t="s">
         <v>192</v>
       </c>
@@ -22170,7 +22132,7 @@
         <v>3.264585265782579E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="66" t="s">
         <v>193</v>
       </c>
@@ -22225,7 +22187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="66" t="s">
         <v>193</v>
       </c>
@@ -22280,7 +22242,7 @@
         <v>1.6879410397484532E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="66" t="s">
         <v>193</v>
       </c>
@@ -22335,7 +22297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="66" t="s">
         <v>194</v>
       </c>
@@ -22390,7 +22352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="66" t="s">
         <v>194</v>
       </c>
@@ -22445,7 +22407,7 @@
         <v>4.4700059088512304E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="66" t="s">
         <v>195</v>
       </c>
@@ -22500,7 +22462,7 @@
         <v>5.7216640735920303E-5</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="66" t="s">
         <v>195</v>
       </c>
@@ -22555,7 +22517,7 @@
         <v>3.3672144969117994E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="66" t="s">
         <v>196</v>
       </c>
@@ -22610,7 +22572,7 @@
         <v>5.9217917226307192E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="66" t="s">
         <v>197</v>
       </c>
@@ -22665,7 +22627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="66" t="s">
         <v>197</v>
       </c>
@@ -22720,7 +22682,7 @@
         <v>2.8231775669514346E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="66" t="s">
         <v>198</v>
       </c>
@@ -22775,7 +22737,7 @@
         <v>1.0259156585376369E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="66" t="s">
         <v>198</v>
       </c>
@@ -22830,7 +22792,7 @@
         <v>6.6554779454905096E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="66" t="s">
         <v>199</v>
       </c>
@@ -22885,7 +22847,7 @@
         <v>5.9769790694684834E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="66" t="s">
         <v>199</v>
       </c>
@@ -22940,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="66" t="s">
         <v>200</v>
       </c>
@@ -22995,7 +22957,7 @@
         <v>2.6370623265778224E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="66" t="s">
         <v>200</v>
       </c>
@@ -23050,7 +23012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="66" t="s">
         <v>201</v>
       </c>
@@ -23105,7 +23067,7 @@
         <v>9.7490699615316852E-4</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="66" t="s">
         <v>202</v>
       </c>
@@ -23160,7 +23122,7 @@
         <v>1.4606442543423587E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="66" t="s">
         <v>202</v>
       </c>
@@ -23215,7 +23177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="66" t="s">
         <v>203</v>
       </c>
@@ -23270,7 +23232,7 @@
         <v>5.084339209547397E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="66" t="s">
         <v>203</v>
       </c>
@@ -23325,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="66" t="s">
         <v>204</v>
       </c>
@@ -23380,7 +23342,7 @@
         <v>6.22190802000372E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="66" t="s">
         <v>205</v>
       </c>
@@ -23435,7 +23397,7 @@
         <v>2.5005695429591761E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="66" t="s">
         <v>205</v>
       </c>
@@ -23490,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="66" t="s">
         <v>206</v>
       </c>
@@ -23545,7 +23507,7 @@
         <v>4.4393837311734177E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="66" t="s">
         <v>207</v>
       </c>
@@ -23600,7 +23562,7 @@
         <v>2.8056471598123778E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="66" t="s">
         <v>207</v>
       </c>
@@ -23655,7 +23617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="66" t="s">
         <v>208</v>
       </c>
@@ -23710,7 +23672,7 @@
         <v>8.9245681285700408E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="66" t="s">
         <v>209</v>
       </c>
@@ -23765,7 +23727,7 @@
         <v>8.5294152403899443E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="66" t="s">
         <v>210</v>
       </c>
@@ -23820,7 +23782,7 @@
         <v>4.8626333711851545E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="66" t="s">
         <v>210</v>
       </c>
@@ -23875,7 +23837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="66" t="s">
         <v>210</v>
       </c>
@@ -23930,7 +23892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="66" t="s">
         <v>211</v>
       </c>
@@ -23985,7 +23947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="66" t="s">
         <v>211</v>
       </c>
@@ -24040,7 +24002,7 @@
         <v>1.0719791789864474E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="66" t="s">
         <v>212</v>
       </c>
@@ -24095,7 +24057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="66" t="s">
         <v>212</v>
       </c>
@@ -24150,7 +24112,7 @@
         <v>1.3090226879926513E-5</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="66" t="s">
         <v>212</v>
       </c>
@@ -24205,7 +24167,7 @@
         <v>6.4290503634985121E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="66" t="s">
         <v>212</v>
       </c>
@@ -24260,7 +24222,7 @@
         <v>2.0685028324412178E-5</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="66" t="s">
         <v>213</v>
       </c>
@@ -24315,7 +24277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="66" t="s">
         <v>213</v>
       </c>
@@ -24370,7 +24332,7 @@
         <v>1.0303575676946565E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="66" t="s">
         <v>213</v>
       </c>
@@ -24425,7 +24387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="66" t="s">
         <v>214</v>
       </c>
@@ -24480,7 +24442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="66" t="s">
         <v>214</v>
       </c>
@@ -24535,7 +24497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="66" t="s">
         <v>214</v>
       </c>
@@ -24590,7 +24552,7 @@
         <v>7.7718248430812837E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="66" t="s">
         <v>215</v>
       </c>
@@ -24645,7 +24607,7 @@
         <v>1.1829922373346109E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="66" t="s">
         <v>215</v>
       </c>
@@ -24700,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="66" t="s">
         <v>215</v>
       </c>
@@ -24755,7 +24717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="66" t="s">
         <v>215</v>
       </c>
@@ -24810,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="66" t="s">
         <v>215</v>
       </c>
@@ -24865,7 +24827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="66" t="s">
         <v>216</v>
       </c>
@@ -24920,7 +24882,7 @@
         <v>4.9564334912692767E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="66" t="s">
         <v>216</v>
       </c>
@@ -24975,7 +24937,7 @@
         <v>6.7728031174148088E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="66" t="s">
         <v>216</v>
       </c>
@@ -25030,7 +24992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="66" t="s">
         <v>216</v>
       </c>
@@ -25085,7 +25047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="66" t="s">
         <v>216</v>
       </c>
@@ -25140,7 +25102,7 @@
         <v>4.6328597543128592E-5</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="66" t="s">
         <v>217</v>
       </c>
@@ -25195,7 +25157,7 @@
         <v>4.6326177086082878E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="66" t="s">
         <v>217</v>
       </c>
@@ -25250,7 +25212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="66" t="s">
         <v>217</v>
       </c>
@@ -25305,7 +25267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="66" t="s">
         <v>217</v>
       </c>
@@ -25360,7 +25322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="66" t="s">
         <v>218</v>
       </c>
@@ -25415,7 +25377,7 @@
         <v>9.8927599000801628E-4</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="66" t="s">
         <v>218</v>
       </c>
@@ -25470,7 +25432,7 @@
         <v>9.2619529810800797E-5</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="66" t="s">
         <v>218</v>
       </c>
@@ -25525,7 +25487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="66" t="s">
         <v>219</v>
       </c>
@@ -25580,7 +25542,7 @@
         <v>5.7562840189082434E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="66" t="s">
         <v>219</v>
       </c>
@@ -25635,7 +25597,7 @@
         <v>1.1114343577296096E-4</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="66" t="s">
         <v>219</v>
       </c>
@@ -25690,7 +25652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="66" t="s">
         <v>220</v>
       </c>
@@ -25745,7 +25707,7 @@
         <v>2.6692445258694156E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="66" t="s">
         <v>220</v>
       </c>
@@ -25800,7 +25762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="66" t="s">
         <v>220</v>
       </c>
@@ -25855,7 +25817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="66" t="s">
         <v>220</v>
       </c>
@@ -25910,7 +25872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="66" t="s">
         <v>221</v>
       </c>
@@ -25965,7 +25927,7 @@
         <v>8.8247177920669137E-4</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="66" t="s">
         <v>221</v>
       </c>
@@ -26020,7 +25982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="66" t="s">
         <v>221</v>
       </c>
@@ -26075,7 +26037,7 @@
         <v>3.2121070401917795E-5</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="66" t="s">
         <v>244</v>
       </c>
@@ -26130,7 +26092,7 @@
         <v>6.85539503946476E-4</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="66" t="s">
         <v>222</v>
       </c>
@@ -26185,7 +26147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="66" t="s">
         <v>222</v>
       </c>
@@ -26240,7 +26202,7 @@
         <v>1.0623479828131879E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="66" t="s">
         <v>223</v>
       </c>
@@ -26295,7 +26257,7 @@
         <v>8.5582730160248602E-4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="66" t="s">
         <v>223</v>
       </c>
@@ -26350,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="66" t="s">
         <v>245</v>
       </c>
@@ -26405,7 +26367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="66" t="s">
         <v>224</v>
       </c>
@@ -26460,7 +26422,7 @@
         <v>3.2101382577197674E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="66" t="s">
         <v>225</v>
       </c>
@@ -26515,7 +26477,7 @@
         <v>5.7699960315649656E-4</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="66" t="s">
         <v>226</v>
       </c>
@@ -26570,7 +26532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="66" t="s">
         <v>226</v>
       </c>
@@ -26625,7 +26587,7 @@
         <v>4.6290577226141254E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="66" t="s">
         <v>58</v>
       </c>
@@ -26680,7 +26642,7 @@
         <v>2.147065835817576E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="66" t="s">
         <v>246</v>
       </c>
@@ -26735,7 +26697,7 @@
         <v>1.7065148367640048E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="66" t="s">
         <v>55</v>
       </c>
@@ -26790,7 +26752,7 @@
         <v>1.1965635609255516E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="66" t="s">
         <v>247</v>
       </c>
@@ -26845,7 +26807,7 @@
         <v>3.0287821175196007E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="66"/>
       <c r="B328" s="67"/>
       <c r="C328" s="101"/>
@@ -26865,7 +26827,7 @@
       <c r="N328" s="60"/>
       <c r="O328" s="72"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="64"/>
       <c r="B329" s="64"/>
       <c r="C329" s="103"/>
@@ -26882,7 +26844,7 @@
       <c r="N329" s="32"/>
       <c r="O329" s="33"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="19"/>
       <c r="B330" s="20"/>
       <c r="C330" s="102" t="s">
@@ -26937,7 +26899,7 @@
         <v>0.69839526633907711</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J332" s="9"/>
       <c r="N332" s="9"/>
     </row>
@@ -26961,32 +26923,32 @@
   <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7265625" style="43" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="43" customWidth="1"/>
     <col min="3" max="3" width="20" style="43" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="89" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="89" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="43" customWidth="1"/>
     <col min="6" max="6" width="25" style="89" customWidth="1"/>
-    <col min="7" max="7" width="34.453125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="30.26953125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="40.26953125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="38.54296875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="49.26953125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="22.7265625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="32.7265625" style="96" customWidth="1"/>
-    <col min="14" max="14" width="31.26953125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="41.26953125" style="43" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" customWidth="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1"/>
-    <col min="19" max="19" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="43" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="43" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" style="96" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" style="43" customWidth="1"/>
+    <col min="15" max="15" width="41.28515625" style="43" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -27033,7 +26995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>60</v>
       </c>
@@ -27088,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>62</v>
       </c>
@@ -27143,7 +27105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>63</v>
       </c>
@@ -27198,7 +27160,7 @@
         <v>7.5639282678820652E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>64</v>
       </c>
@@ -27253,7 +27215,7 @@
         <v>4.9891877705233343E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>65</v>
       </c>
@@ -27308,7 +27270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
         <v>66</v>
       </c>
@@ -27363,7 +27325,7 @@
         <v>2.2967457572175068E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="83" t="s">
         <v>67</v>
       </c>
@@ -27418,7 +27380,7 @@
         <v>1.9189809508323211E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="83" t="s">
         <v>68</v>
       </c>
@@ -27473,7 +27435,7 @@
         <v>1.3162442327319995E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="83" t="s">
         <v>69</v>
       </c>
@@ -27528,7 +27490,7 @@
         <v>4.6690184187509962E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="83" t="s">
         <v>70</v>
       </c>
@@ -27583,7 +27545,7 @@
         <v>3.7931010149372495E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="83" t="s">
         <v>71</v>
       </c>
@@ -27638,7 +27600,7 @@
         <v>9.1415599415966794E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="83" t="s">
         <v>72</v>
       </c>
@@ -27693,7 +27655,7 @@
         <v>3.5061740473410718E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
         <v>73</v>
       </c>
@@ -27748,7 +27710,7 @@
         <v>7.3987104632878978E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
         <v>73</v>
       </c>
@@ -27803,7 +27765,7 @@
         <v>2.9244548616771827E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="83" t="s">
         <v>74</v>
       </c>
@@ -27858,7 +27820,7 @@
         <v>1.7492609108940519E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="83" t="s">
         <v>75</v>
       </c>
@@ -27913,7 +27875,7 @@
         <v>2.9661898392734619E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
         <v>77</v>
       </c>
@@ -27968,7 +27930,7 @@
         <v>2.0353752964820228E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
         <v>78</v>
       </c>
@@ -28023,7 +27985,7 @@
         <v>5.3581904606566522E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
         <v>79</v>
       </c>
@@ -28078,7 +28040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
         <v>80</v>
       </c>
@@ -28133,7 +28095,7 @@
         <v>2.4501493233207734E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
         <v>81</v>
       </c>
@@ -28188,7 +28150,7 @@
         <v>1.2578223031814745E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
         <v>82</v>
       </c>
@@ -28243,7 +28205,7 @@
         <v>3.730288610941926E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="83" t="s">
         <v>83</v>
       </c>
@@ -28298,7 +28260,7 @@
         <v>8.2778735641579821E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
         <v>84</v>
       </c>
@@ -28353,7 +28315,7 @@
         <v>1.0265263299708558E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
         <v>85</v>
       </c>
@@ -28408,7 +28370,7 @@
         <v>4.0782817956647275E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
         <v>86</v>
       </c>
@@ -28463,7 +28425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
         <v>87</v>
       </c>
@@ -28518,7 +28480,7 @@
         <v>5.4331758494550076E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="83" t="s">
         <v>88</v>
       </c>
@@ -28573,7 +28535,7 @@
         <v>5.581777092937586E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
         <v>89</v>
       </c>
@@ -28628,7 +28590,7 @@
         <v>4.9573708009109619E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="83" t="s">
         <v>90</v>
       </c>
@@ -28683,7 +28645,7 @@
         <v>1.8655820871152024E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="83" t="s">
         <v>91</v>
       </c>
@@ -28738,7 +28700,7 @@
         <v>6.0861929317037201E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="83" t="s">
         <v>92</v>
       </c>
@@ -28793,7 +28755,7 @@
         <v>1.3322522835327321E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="83" t="s">
         <v>93</v>
       </c>
@@ -28848,7 +28810,7 @@
         <v>6.2610635436947679E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="83" t="s">
         <v>94</v>
       </c>
@@ -28903,7 +28865,7 @@
         <v>9.7231920649025472E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="83" t="s">
         <v>95</v>
       </c>
@@ -28958,7 +28920,7 @@
         <v>2.8071219714587316E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="83" t="s">
         <v>95</v>
       </c>
@@ -29013,7 +28975,7 @@
         <v>1.0662264564971918E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="83" t="s">
         <v>96</v>
       </c>
@@ -29068,7 +29030,7 @@
         <v>5.6885834648612733E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
         <v>97</v>
       </c>
@@ -29123,7 +29085,7 @@
         <v>7.5732846927835523E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="83" t="s">
         <v>98</v>
       </c>
@@ -29178,7 +29140,7 @@
         <v>2.3939061138431646E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="83" t="s">
         <v>99</v>
       </c>
@@ -29233,7 +29195,7 @@
         <v>1.7804934512733177E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>100</v>
       </c>
@@ -29288,7 +29250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
         <v>101</v>
       </c>
@@ -29343,7 +29305,7 @@
         <v>9.5365853235574078E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
         <v>102</v>
       </c>
@@ -29398,7 +29360,7 @@
         <v>7.7159200036192488E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
         <v>103</v>
       </c>
@@ -29453,7 +29415,7 @@
         <v>1.5505799789110083E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
         <v>104</v>
       </c>
@@ -29508,7 +29470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>105</v>
       </c>
@@ -29563,7 +29525,7 @@
         <v>3.3070846632315626E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
         <v>106</v>
       </c>
@@ -29618,7 +29580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
         <v>107</v>
       </c>
@@ -29673,7 +29635,7 @@
         <v>1.6808799120347372E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="79" t="s">
         <v>108</v>
       </c>
@@ -29728,7 +29690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="79" t="s">
         <v>108</v>
       </c>
@@ -29783,7 +29745,7 @@
         <v>1.4451218386096008E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="79" t="s">
         <v>109</v>
       </c>
@@ -29838,7 +29800,7 @@
         <v>2.2252045800010473E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="79" t="s">
         <v>110</v>
       </c>
@@ -29893,7 +29855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="79" t="s">
         <v>111</v>
       </c>
@@ -29948,7 +29910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>112</v>
       </c>
@@ -30003,7 +29965,7 @@
         <v>1.1724891517808894E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="79" t="s">
         <v>113</v>
       </c>
@@ -30058,7 +30020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>114</v>
       </c>
@@ -30113,7 +30075,7 @@
         <v>4.6359501592908806E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="79" t="s">
         <v>115</v>
       </c>
@@ -30168,7 +30130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="79" t="s">
         <v>116</v>
       </c>
@@ -30223,7 +30185,7 @@
         <v>3.4051878866706953E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>117</v>
       </c>
@@ -30278,7 +30240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="79" t="s">
         <v>118</v>
       </c>
@@ -30333,7 +30295,7 @@
         <v>2.8024891425775952E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="79" t="s">
         <v>119</v>
       </c>
@@ -30388,7 +30350,7 @@
         <v>5.1456869900446444E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="79" t="s">
         <v>120</v>
       </c>
@@ -30443,7 +30405,7 @@
         <v>4.2874413925187988E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>121</v>
       </c>
@@ -30498,7 +30460,7 @@
         <v>3.1133746214134654E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>122</v>
       </c>
@@ -30553,7 +30515,7 @@
         <v>1.3750986954867408E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="79" t="s">
         <v>123</v>
       </c>
@@ -30608,7 +30570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="79" t="s">
         <v>124</v>
       </c>
@@ -30663,7 +30625,7 @@
         <v>8.2716896668842807E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="79" t="s">
         <v>125</v>
       </c>
@@ -30718,7 +30680,7 @@
         <v>7.093800796515421E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="79" t="s">
         <v>126</v>
       </c>
@@ -30773,7 +30735,7 @@
         <v>1.0318883832833696E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="79" t="s">
         <v>127</v>
       </c>
@@ -30828,7 +30790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="79" t="s">
         <v>128</v>
       </c>
@@ -30883,7 +30845,7 @@
         <v>1.4794330521597778E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="79" t="s">
         <v>129</v>
       </c>
@@ -30938,7 +30900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="79" t="s">
         <v>130</v>
       </c>
@@ -30993,7 +30955,7 @@
         <v>2.3065152652219497E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="79" t="s">
         <v>131</v>
       </c>
@@ -31048,7 +31010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="79" t="s">
         <v>132</v>
       </c>
@@ -31103,7 +31065,7 @@
         <v>1.422574849004225E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="79" t="s">
         <v>133</v>
       </c>
@@ -31158,7 +31120,7 @@
         <v>9.9216170582515483E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="79" t="s">
         <v>134</v>
       </c>
@@ -31213,7 +31175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="79" t="s">
         <v>135</v>
       </c>
@@ -31268,7 +31230,7 @@
         <v>1.1749162465595818E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="79" t="s">
         <v>136</v>
       </c>
@@ -31323,7 +31285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="79" t="s">
         <v>137</v>
       </c>
@@ -31378,7 +31340,7 @@
         <v>1.0293507934056131E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="79" t="s">
         <v>138</v>
       </c>
@@ -31433,7 +31395,7 @@
         <v>7.1862412619019215E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="79" t="s">
         <v>139</v>
       </c>
@@ -31488,7 +31450,7 @@
         <v>9.1914324710821364E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="79" t="s">
         <v>140</v>
       </c>
@@ -31543,7 +31505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="79" t="s">
         <v>141</v>
       </c>
@@ -31598,7 +31560,7 @@
         <v>1.4123697204779051E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="79" t="s">
         <v>142</v>
       </c>
@@ -31653,7 +31615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="79" t="s">
         <v>143</v>
       </c>
@@ -31708,7 +31670,7 @@
         <v>2.3372915000510145E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="79" t="s">
         <v>144</v>
       </c>
@@ -31763,7 +31725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="79" t="s">
         <v>145</v>
       </c>
@@ -31818,7 +31780,7 @@
         <v>1.087808659333704E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="79" t="s">
         <v>146</v>
       </c>
@@ -31873,7 +31835,7 @@
         <v>2.7840708228794196E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="79" t="s">
         <v>147</v>
       </c>
@@ -31928,7 +31890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="79" t="s">
         <v>148</v>
       </c>
@@ -31983,7 +31945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="79" t="s">
         <v>149</v>
       </c>
@@ -32038,7 +32000,7 @@
         <v>3.0925867854109637E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="79" t="s">
         <v>150</v>
       </c>
@@ -32093,7 +32055,7 @@
         <v>1.9084306601915733E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="79" t="s">
         <v>151</v>
       </c>
@@ -32148,7 +32110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="79" t="s">
         <v>152</v>
       </c>
@@ -32203,7 +32165,7 @@
         <v>3.0969145873072554E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="79" t="s">
         <v>153</v>
       </c>
@@ -32258,7 +32220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="79" t="s">
         <v>154</v>
       </c>
@@ -32313,7 +32275,7 @@
         <v>4.1316615180123526E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="79" t="s">
         <v>155</v>
       </c>
@@ -32368,7 +32330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="79" t="s">
         <v>156</v>
       </c>
@@ -32423,7 +32385,7 @@
         <v>4.90605402422399E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="79" t="s">
         <v>157</v>
       </c>
@@ -32478,7 +32440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="79" t="s">
         <v>158</v>
       </c>
@@ -32533,7 +32495,7 @@
         <v>7.7947500291000527E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="79" t="s">
         <v>159</v>
       </c>
@@ -32588,7 +32550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>160</v>
       </c>
@@ -32643,7 +32605,7 @@
         <v>1.8678271845178163E-5</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="79" t="s">
         <v>161</v>
       </c>
@@ -32698,7 +32660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="79" t="s">
         <v>162</v>
       </c>
@@ -32753,7 +32715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="79" t="s">
         <v>163</v>
       </c>
@@ -32808,7 +32770,7 @@
         <v>5.5449225470988036E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="79" t="s">
         <v>164</v>
       </c>
@@ -32863,7 +32825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="79" t="s">
         <v>165</v>
       </c>
@@ -32918,7 +32880,7 @@
         <v>5.0499248795873638E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="79" t="s">
         <v>166</v>
       </c>
@@ -32973,7 +32935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="79" t="s">
         <v>167</v>
       </c>
@@ -33028,7 +32990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>168</v>
       </c>
@@ -33083,7 +33045,7 @@
         <v>5.2264299175478063E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="79" t="s">
         <v>169</v>
       </c>
@@ -33138,7 +33100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="79" t="s">
         <v>170</v>
       </c>
@@ -33193,7 +33155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="79" t="s">
         <v>171</v>
       </c>
@@ -33248,7 +33210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="79" t="s">
         <v>172</v>
       </c>
@@ -33303,7 +33265,7 @@
         <v>1.4917671949446823E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="79" t="s">
         <v>173</v>
       </c>
@@ -33358,7 +33320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="79" t="s">
         <v>174</v>
       </c>
@@ -33413,7 +33375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="79" t="s">
         <v>175</v>
       </c>
@@ -33468,7 +33430,7 @@
         <v>6.4577124031937614E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="79" t="s">
         <v>176</v>
       </c>
@@ -33523,7 +33485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="79" t="s">
         <v>177</v>
       </c>
@@ -33578,7 +33540,7 @@
         <v>9.2369512652029535E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="79" t="s">
         <v>178</v>
       </c>
@@ -33633,7 +33595,7 @@
         <v>1.029408958470334E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="79" t="s">
         <v>179</v>
       </c>
@@ -33688,7 +33650,7 @@
         <v>5.3990041826630798E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="79" t="s">
         <v>180</v>
       </c>
@@ -33743,7 +33705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="79" t="s">
         <v>181</v>
       </c>
@@ -33798,7 +33760,7 @@
         <v>2.8505222482010087E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="79" t="s">
         <v>182</v>
       </c>
@@ -33853,7 +33815,7 @@
         <v>3.228071559813501E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="79" t="s">
         <v>183</v>
       </c>
@@ -33908,7 +33870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="79" t="s">
         <v>184</v>
       </c>
@@ -33963,7 +33925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="79" t="s">
         <v>185</v>
       </c>
@@ -34018,7 +33980,7 @@
         <v>5.8313169523985702E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="79" t="s">
         <v>186</v>
       </c>
@@ -34073,7 +34035,7 @@
         <v>3.5566084686407128E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="79" t="s">
         <v>187</v>
       </c>
@@ -34128,7 +34090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="79" t="s">
         <v>187</v>
       </c>
@@ -34183,7 +34145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="79" t="s">
         <v>188</v>
       </c>
@@ -34238,7 +34200,7 @@
         <v>2.6268849839104461E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="79" t="s">
         <v>189</v>
       </c>
@@ -34293,7 +34255,7 @@
         <v>7.5991236892101704E-5</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="79" t="s">
         <v>190</v>
       </c>
@@ -34348,7 +34310,7 @@
         <v>3.3648141074308691E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="79" t="s">
         <v>191</v>
       </c>
@@ -34403,7 +34365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="79" t="s">
         <v>192</v>
       </c>
@@ -34458,7 +34420,7 @@
         <v>5.7288606110583295E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="79" t="s">
         <v>193</v>
       </c>
@@ -34513,7 +34475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>194</v>
       </c>
@@ -34568,7 +34530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="79" t="s">
         <v>195</v>
       </c>
@@ -34623,7 +34585,7 @@
         <v>7.8207569756073934E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="79" t="s">
         <v>195</v>
       </c>
@@ -34678,7 +34640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="79" t="s">
         <v>196</v>
       </c>
@@ -34733,7 +34695,7 @@
         <v>1.3280865658136084E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="79" t="s">
         <v>197</v>
       </c>
@@ -34788,7 +34750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="79" t="s">
         <v>198</v>
       </c>
@@ -34843,7 +34805,7 @@
         <v>5.6550243218931595E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="79" t="s">
         <v>199</v>
       </c>
@@ -34898,7 +34860,7 @@
         <v>1.5020661779278771E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="79" t="s">
         <v>200</v>
       </c>
@@ -34953,7 +34915,7 @@
         <v>1.3442628754268306E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="79" t="s">
         <v>201</v>
       </c>
@@ -35008,7 +34970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="104" t="s">
         <v>202</v>
       </c>
@@ -35063,7 +35025,7 @@
         <v>4.6248018552193197E-5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="104" t="s">
         <v>203</v>
       </c>
@@ -35118,7 +35080,7 @@
         <v>3.6121616626212312E-5</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="104" t="s">
         <v>204</v>
       </c>
@@ -35173,7 +35135,7 @@
         <v>6.1746353207200536E-5</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="104" t="s">
         <v>205</v>
       </c>
@@ -35228,7 +35190,7 @@
         <v>1.8523905962160159E-5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="104" t="s">
         <v>206</v>
       </c>
@@ -35283,7 +35245,7 @@
         <v>1.7125845032842726E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="104" t="s">
         <v>207</v>
       </c>
@@ -35338,7 +35300,7 @@
         <v>4.6309764905400397E-6</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="104" t="s">
         <v>208</v>
       </c>
@@ -35393,7 +35355,7 @@
         <v>9.7562325385037204E-4</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="104" t="s">
         <v>209</v>
       </c>
@@ -35448,7 +35410,7 @@
         <v>4.8159376915722094E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="79" t="s">
         <v>210</v>
       </c>
@@ -35503,7 +35465,7 @@
         <v>5.9087308252685653E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="79" t="s">
         <v>211</v>
       </c>
@@ -35558,7 +35520,7 @@
         <v>8.0445340953879708E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="104" t="s">
         <v>212</v>
       </c>
@@ -35613,7 +35575,7 @@
         <v>5.4118014230970374E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="104" t="s">
         <v>213</v>
       </c>
@@ -35668,7 +35630,7 @@
         <v>3.3497550980789307E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="104" t="s">
         <v>214</v>
       </c>
@@ -35723,7 +35685,7 @@
         <v>3.2111190985404639E-4</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="104" t="s">
         <v>215</v>
       </c>
@@ -35778,7 +35740,7 @@
         <v>7.4435228791280248E-5</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="79" t="s">
         <v>216</v>
       </c>
@@ -35833,7 +35795,7 @@
         <v>2.7396705639469521E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="79" t="s">
         <v>216</v>
       </c>
@@ -35888,7 +35850,7 @@
         <v>4.8451718112299232E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="79" t="s">
         <v>217</v>
       </c>
@@ -35943,7 +35905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="79" t="s">
         <v>217</v>
       </c>
@@ -35998,7 +35960,7 @@
         <v>5.4047756142973549E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>218</v>
       </c>
@@ -36053,7 +36015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="79" t="s">
         <v>219</v>
       </c>
@@ -36108,7 +36070,7 @@
         <v>6.1746353207200538E-6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="79" t="s">
         <v>219</v>
       </c>
@@ -36163,7 +36125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="79" t="s">
         <v>220</v>
       </c>
@@ -36218,7 +36180,7 @@
         <v>3.0327295618801371E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="79" t="s">
         <v>221</v>
       </c>
@@ -36273,7 +36235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="79" t="s">
         <v>222</v>
       </c>
@@ -36328,7 +36290,7 @@
         <v>7.419506635048084E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="79" t="s">
         <v>223</v>
       </c>
@@ -36383,7 +36345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="79" t="s">
         <v>224</v>
       </c>
@@ -36438,7 +36400,7 @@
         <v>1.2549144821698879E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="79" t="s">
         <v>225</v>
       </c>
@@ -36493,7 +36455,7 @@
         <v>7.6145182899917891E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>226</v>
       </c>
@@ -36548,7 +36510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="79"/>
       <c r="B175" s="80"/>
       <c r="C175" s="44"/>
@@ -36565,7 +36527,7 @@
       <c r="N175" s="65"/>
       <c r="O175" s="93"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="42"/>
       <c r="C176" s="88" t="s">
         <v>20</v>
@@ -36640,32 +36602,32 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J446" sqref="J446"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7265625" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.54296875" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" customWidth="1"/>
-    <col min="18" max="18" width="20.54296875" customWidth="1"/>
-    <col min="19" max="19" width="14.26953125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -36712,7 +36674,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>227</v>
       </c>
@@ -36747,7 +36709,7 @@
       <c r="N2" s="98"/>
       <c r="O2" s="46"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>228</v>
       </c>
@@ -36782,7 +36744,7 @@
       <c r="N3" s="98"/>
       <c r="O3" s="46"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>60</v>
       </c>
@@ -36819,7 +36781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>60</v>
       </c>
@@ -36868,7 +36830,7 @@
         <v>6734.5899999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>60</v>
       </c>
@@ -36903,7 +36865,7 @@
       <c r="N6" s="98"/>
       <c r="O6" s="46"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>60</v>
       </c>
@@ -36940,7 +36902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>62</v>
       </c>
@@ -36983,7 +36945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>62</v>
       </c>
@@ -37018,7 +36980,7 @@
       <c r="N9" s="98"/>
       <c r="O9" s="46"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>63</v>
       </c>
@@ -37067,7 +37029,7 @@
         <v>8169.34</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>63</v>
       </c>
@@ -37104,7 +37066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>64</v>
       </c>
@@ -37147,7 +37109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>64</v>
       </c>
@@ -37182,7 +37144,7 @@
       <c r="N13" s="98"/>
       <c r="O13" s="46"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>65</v>
       </c>
@@ -37225,7 +37187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>65</v>
       </c>
@@ -37260,7 +37222,7 @@
       <c r="N15" s="98"/>
       <c r="O15" s="46"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
         <v>66</v>
       </c>
@@ -37309,7 +37271,7 @@
         <v>1149.3700000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
         <v>66</v>
       </c>
@@ -37344,7 +37306,7 @@
       <c r="N17" s="98"/>
       <c r="O17" s="46"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
         <v>67</v>
       </c>
@@ -37387,7 +37349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>67</v>
       </c>
@@ -37424,7 +37386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
         <v>229</v>
       </c>
@@ -37473,7 +37435,7 @@
         <v>3397.5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
         <v>68</v>
       </c>
@@ -37522,7 +37484,7 @@
         <v>11760</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
         <v>68</v>
       </c>
@@ -37557,7 +37519,7 @@
       <c r="N22" s="98"/>
       <c r="O22" s="46"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>69</v>
       </c>
@@ -37606,7 +37568,7 @@
         <v>12938.769999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>69</v>
       </c>
@@ -37643,7 +37605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
         <v>70</v>
       </c>
@@ -37692,7 +37654,7 @@
         <v>8362.9799999999959</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
         <v>70</v>
       </c>
@@ -37727,7 +37689,7 @@
       <c r="N26" s="98"/>
       <c r="O26" s="46"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
         <v>230</v>
       </c>
@@ -37776,7 +37738,7 @@
         <v>210.6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>71</v>
       </c>
@@ -37825,7 +37787,7 @@
         <v>242.58999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
         <v>71</v>
       </c>
@@ -37862,7 +37824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
         <v>72</v>
       </c>
@@ -37911,7 +37873,7 @@
         <v>1415.7</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
         <v>72</v>
       </c>
@@ -37948,7 +37910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
         <v>73</v>
       </c>
@@ -37983,7 +37945,7 @@
       <c r="N32" s="98"/>
       <c r="O32" s="46"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
         <v>73</v>
       </c>
@@ -38026,7 +37988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>73</v>
       </c>
@@ -38061,7 +38023,7 @@
       <c r="N34" s="98"/>
       <c r="O34" s="46"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
         <v>73</v>
       </c>
@@ -38098,7 +38060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
         <v>74</v>
       </c>
@@ -38147,7 +38109,7 @@
         <v>1966.41</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>74</v>
       </c>
@@ -38184,7 +38146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>75</v>
       </c>
@@ -38233,7 +38195,7 @@
         <v>2593.7599999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
         <v>75</v>
       </c>
@@ -38270,7 +38232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
         <v>77</v>
       </c>
@@ -38319,7 +38281,7 @@
         <v>3676.3099999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
         <v>77</v>
       </c>
@@ -38354,7 +38316,7 @@
       <c r="N41" s="98"/>
       <c r="O41" s="46"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>78</v>
       </c>
@@ -38397,7 +38359,7 @@
         <v>241.24</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
         <v>78</v>
       </c>
@@ -38434,7 +38396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
         <v>79</v>
       </c>
@@ -38477,7 +38439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
         <v>79</v>
       </c>
@@ -38512,7 +38474,7 @@
       <c r="N45" s="98"/>
       <c r="O45" s="46"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
         <v>79</v>
       </c>
@@ -38549,7 +38511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>80</v>
       </c>
@@ -38592,7 +38554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
         <v>80</v>
       </c>
@@ -38627,7 +38589,7 @@
       <c r="N48" s="98"/>
       <c r="O48" s="46"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="79" t="s">
         <v>81</v>
       </c>
@@ -38670,7 +38632,7 @@
         <v>155642.63</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="79" t="s">
         <v>81</v>
       </c>
@@ -38707,7 +38669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="79" t="s">
         <v>82</v>
       </c>
@@ -38756,7 +38718,7 @@
         <v>4573.3200000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="79" t="s">
         <v>82</v>
       </c>
@@ -38793,7 +38755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="79" t="s">
         <v>83</v>
       </c>
@@ -38842,7 +38804,7 @@
         <v>1397.1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="79" t="s">
         <v>83</v>
       </c>
@@ -38879,7 +38841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>84</v>
       </c>
@@ -38928,7 +38890,7 @@
         <v>5967.36</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="79" t="s">
         <v>84</v>
       </c>
@@ -38965,7 +38927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>85</v>
       </c>
@@ -39014,7 +38976,7 @@
         <v>17677.490000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="79" t="s">
         <v>85</v>
       </c>
@@ -39051,7 +39013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="79" t="s">
         <v>86</v>
       </c>
@@ -39100,7 +39062,7 @@
         <v>3035.9</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>86</v>
       </c>
@@ -39135,7 +39097,7 @@
       <c r="N60" s="98"/>
       <c r="O60" s="46"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="79" t="s">
         <v>87</v>
       </c>
@@ -39184,7 +39146,7 @@
         <v>99.639999999999986</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="79" t="s">
         <v>87</v>
       </c>
@@ -39219,7 +39181,7 @@
       <c r="N62" s="98"/>
       <c r="O62" s="46"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="79" t="s">
         <v>231</v>
       </c>
@@ -39262,7 +39224,7 @@
         <v>42.429999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>88</v>
       </c>
@@ -39311,7 +39273,7 @@
         <v>8255.67</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>88</v>
       </c>
@@ -39348,7 +39310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="79" t="s">
         <v>89</v>
       </c>
@@ -39397,7 +39359,7 @@
         <v>4035.7100000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="79" t="s">
         <v>89</v>
       </c>
@@ -39432,7 +39394,7 @@
       <c r="N67" s="98"/>
       <c r="O67" s="46"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="79" t="s">
         <v>90</v>
       </c>
@@ -39481,7 +39443,7 @@
         <v>2309.12</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="79" t="s">
         <v>90</v>
       </c>
@@ -39518,7 +39480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="79" t="s">
         <v>90</v>
       </c>
@@ -39555,7 +39517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="79" t="s">
         <v>91</v>
       </c>
@@ -39604,7 +39566,7 @@
         <v>27380.800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="79" t="s">
         <v>91</v>
       </c>
@@ -39639,7 +39601,7 @@
       <c r="N72" s="98"/>
       <c r="O72" s="46"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="79" t="s">
         <v>91</v>
       </c>
@@ -39674,7 +39636,7 @@
       <c r="N73" s="98"/>
       <c r="O73" s="46"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="79" t="s">
         <v>92</v>
       </c>
@@ -39723,7 +39685,7 @@
         <v>17648.41</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="79" t="s">
         <v>92</v>
       </c>
@@ -39760,7 +39722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="79" t="s">
         <v>93</v>
       </c>
@@ -39809,7 +39771,7 @@
         <v>3139.09</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="79" t="s">
         <v>93</v>
       </c>
@@ -39844,7 +39806,7 @@
       <c r="N77" s="98"/>
       <c r="O77" s="46"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="79" t="s">
         <v>94</v>
       </c>
@@ -39893,7 +39855,7 @@
         <v>5754.7499999999991</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="79" t="s">
         <v>94</v>
       </c>
@@ -39928,7 +39890,7 @@
       <c r="N79" s="98"/>
       <c r="O79" s="46"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="79" t="s">
         <v>94</v>
       </c>
@@ -39965,7 +39927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="79" t="s">
         <v>95</v>
       </c>
@@ -40014,7 +39976,7 @@
         <v>17947.990000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="79" t="s">
         <v>95</v>
       </c>
@@ -40049,7 +40011,7 @@
       <c r="N82" s="98"/>
       <c r="O82" s="46"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="79" t="s">
         <v>95</v>
       </c>
@@ -40086,7 +40048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="79" t="s">
         <v>95</v>
       </c>
@@ -40123,7 +40085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="79" t="s">
         <v>96</v>
       </c>
@@ -40172,7 +40134,7 @@
         <v>17682.089999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="79" t="s">
         <v>96</v>
       </c>
@@ -40207,7 +40169,7 @@
       <c r="N86" s="98"/>
       <c r="O86" s="46"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="79" t="s">
         <v>96</v>
       </c>
@@ -40244,7 +40206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="79" t="s">
         <v>97</v>
       </c>
@@ -40293,7 +40255,7 @@
         <v>32193.399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="79" t="s">
         <v>97</v>
       </c>
@@ -40328,7 +40290,7 @@
       <c r="N89" s="98"/>
       <c r="O89" s="46"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="79" t="s">
         <v>98</v>
       </c>
@@ -40377,7 +40339,7 @@
         <v>52651.029999999992</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="79" t="s">
         <v>98</v>
       </c>
@@ -40412,7 +40374,7 @@
       <c r="N91" s="98"/>
       <c r="O91" s="46"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="79" t="s">
         <v>98</v>
       </c>
@@ -40447,7 +40409,7 @@
       <c r="N92" s="98"/>
       <c r="O92" s="46"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="79" t="s">
         <v>98</v>
       </c>
@@ -40484,7 +40446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="79" t="s">
         <v>99</v>
       </c>
@@ -40533,7 +40495,7 @@
         <v>17286.580000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="79" t="s">
         <v>99</v>
       </c>
@@ -40568,7 +40530,7 @@
       <c r="N95" s="98"/>
       <c r="O95" s="46"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="79" t="s">
         <v>99</v>
       </c>
@@ -40603,7 +40565,7 @@
       <c r="N96" s="98"/>
       <c r="O96" s="46"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="79" t="s">
         <v>100</v>
       </c>
@@ -40652,7 +40614,7 @@
         <v>22724.42</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="79" t="s">
         <v>100</v>
       </c>
@@ -40687,7 +40649,7 @@
       <c r="N98" s="98"/>
       <c r="O98" s="46"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="79" t="s">
         <v>100</v>
       </c>
@@ -40730,7 +40692,7 @@
         <v>257877</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="79" t="s">
         <v>232</v>
       </c>
@@ -40779,7 +40741,7 @@
         <v>283.99</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="79" t="s">
         <v>232</v>
       </c>
@@ -40814,7 +40776,7 @@
       <c r="N101" s="98"/>
       <c r="O101" s="46"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="79" t="s">
         <v>101</v>
       </c>
@@ -40863,7 +40825,7 @@
         <v>15064.07</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>101</v>
       </c>
@@ -40900,7 +40862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="79" t="s">
         <v>102</v>
       </c>
@@ -40949,7 +40911,7 @@
         <v>3090.440000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="79" t="s">
         <v>102</v>
       </c>
@@ -40984,7 +40946,7 @@
       <c r="N105" s="98"/>
       <c r="O105" s="46"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="79" t="s">
         <v>103</v>
       </c>
@@ -41033,7 +40995,7 @@
         <v>2198.2799999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="79" t="s">
         <v>103</v>
       </c>
@@ -41068,7 +41030,7 @@
       <c r="N107" s="98"/>
       <c r="O107" s="46"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="79" t="s">
         <v>104</v>
       </c>
@@ -41111,7 +41073,7 @@
         <v>1008.44</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="79" t="s">
         <v>104</v>
       </c>
@@ -41146,7 +41108,7 @@
       <c r="N109" s="98"/>
       <c r="O109" s="46"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="79" t="s">
         <v>105</v>
       </c>
@@ -41195,7 +41157,7 @@
         <v>4593.3899999999985</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>105</v>
       </c>
@@ -41230,7 +41192,7 @@
       <c r="N111" s="98"/>
       <c r="O111" s="46"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="79" t="s">
         <v>105</v>
       </c>
@@ -41267,7 +41229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="79" t="s">
         <v>106</v>
       </c>
@@ -41316,7 +41278,7 @@
         <v>809.22999999999979</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="79" t="s">
         <v>106</v>
       </c>
@@ -41353,7 +41315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="79" t="s">
         <v>107</v>
       </c>
@@ -41402,7 +41364,7 @@
         <v>1753.1799999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="79" t="s">
         <v>107</v>
       </c>
@@ -41437,7 +41399,7 @@
       <c r="N116" s="98"/>
       <c r="O116" s="46"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="79" t="s">
         <v>108</v>
       </c>
@@ -41486,7 +41448,7 @@
         <v>18246.730000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="79" t="s">
         <v>108</v>
       </c>
@@ -41521,7 +41483,7 @@
       <c r="N118" s="98"/>
       <c r="O118" s="46"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="79" t="s">
         <v>108</v>
       </c>
@@ -41556,7 +41518,7 @@
       <c r="N119" s="98"/>
       <c r="O119" s="46"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="79" t="s">
         <v>108</v>
       </c>
@@ -41591,7 +41553,7 @@
       <c r="N120" s="98"/>
       <c r="O120" s="46"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="79" t="s">
         <v>109</v>
       </c>
@@ -41640,7 +41602,7 @@
         <v>2253.1799999999994</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="79" t="s">
         <v>109</v>
       </c>
@@ -41675,7 +41637,7 @@
       <c r="N122" s="98"/>
       <c r="O122" s="46"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="79" t="s">
         <v>109</v>
       </c>
@@ -41712,7 +41674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="79" t="s">
         <v>110</v>
       </c>
@@ -41761,7 +41723,7 @@
         <v>1598.95</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="79" t="s">
         <v>110</v>
       </c>
@@ -41798,7 +41760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="79" t="s">
         <v>111</v>
       </c>
@@ -41833,7 +41795,7 @@
       <c r="N126" s="98"/>
       <c r="O126" s="46"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="79" t="s">
         <v>111</v>
       </c>
@@ -41882,7 +41844,7 @@
         <v>14565.180000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="79" t="s">
         <v>111</v>
       </c>
@@ -41919,7 +41881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="79" t="s">
         <v>112</v>
       </c>
@@ -41968,7 +41930,7 @@
         <v>274202.24000000005</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="79" t="s">
         <v>112</v>
       </c>
@@ -42005,7 +41967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="79" t="s">
         <v>113</v>
       </c>
@@ -42040,7 +42002,7 @@
       <c r="N131" s="98"/>
       <c r="O131" s="46"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="79" t="s">
         <v>113</v>
       </c>
@@ -42089,7 +42051,7 @@
         <v>27237.819999999992</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="79" t="s">
         <v>113</v>
       </c>
@@ -42126,7 +42088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="79" t="s">
         <v>114</v>
       </c>
@@ -42161,7 +42123,7 @@
       <c r="N134" s="98"/>
       <c r="O134" s="46"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="79" t="s">
         <v>114</v>
       </c>
@@ -42210,7 +42172,7 @@
         <v>1986.3500000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="79" t="s">
         <v>114</v>
       </c>
@@ -42247,7 +42209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="79" t="s">
         <v>115</v>
       </c>
@@ -42296,7 +42258,7 @@
         <v>1449.3199999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>115</v>
       </c>
@@ -42333,7 +42295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="79" t="s">
         <v>116</v>
       </c>
@@ -42382,7 +42344,7 @@
         <v>10047.170000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="79" t="s">
         <v>116</v>
       </c>
@@ -42417,7 +42379,7 @@
       <c r="N140" s="98"/>
       <c r="O140" s="46"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="79" t="s">
         <v>117</v>
       </c>
@@ -42452,7 +42414,7 @@
       <c r="N141" s="98"/>
       <c r="O141" s="46"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="79" t="s">
         <v>117</v>
       </c>
@@ -42501,7 +42463,7 @@
         <v>20728.469999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="79" t="s">
         <v>117</v>
       </c>
@@ -42538,7 +42500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="79" t="s">
         <v>233</v>
       </c>
@@ -42573,7 +42535,7 @@
       <c r="N144" s="98"/>
       <c r="O144" s="46"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="79" t="s">
         <v>233</v>
       </c>
@@ -42622,7 +42584,7 @@
         <v>32204.510000000006</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="79" t="s">
         <v>118</v>
       </c>
@@ -42657,7 +42619,7 @@
       <c r="N146" s="98"/>
       <c r="O146" s="46"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="79" t="s">
         <v>118</v>
       </c>
@@ -42706,7 +42668,7 @@
         <v>3854.7199999999993</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="79" t="s">
         <v>118</v>
       </c>
@@ -42741,7 +42703,7 @@
       <c r="N148" s="98"/>
       <c r="O148" s="46"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="79" t="s">
         <v>119</v>
       </c>
@@ -42790,7 +42752,7 @@
         <v>9131.7000000000007</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="79" t="s">
         <v>119</v>
       </c>
@@ -42825,7 +42787,7 @@
       <c r="N150" s="98"/>
       <c r="O150" s="46"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="79" t="s">
         <v>119</v>
       </c>
@@ -42862,7 +42824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="79" t="s">
         <v>120</v>
       </c>
@@ -42897,7 +42859,7 @@
       <c r="N152" s="98"/>
       <c r="O152" s="46"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="79" t="s">
         <v>120</v>
       </c>
@@ -42946,7 +42908,7 @@
         <v>18706.77</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="79" t="s">
         <v>120</v>
       </c>
@@ -42981,7 +42943,7 @@
       <c r="N154" s="98"/>
       <c r="O154" s="46"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="79" t="s">
         <v>121</v>
       </c>
@@ -43030,7 +42992,7 @@
         <v>3948.13</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="79" t="s">
         <v>121</v>
       </c>
@@ -43067,7 +43029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="79" t="s">
         <v>122</v>
       </c>
@@ -43102,7 +43064,7 @@
       <c r="N157" s="98"/>
       <c r="O157" s="46"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="79" t="s">
         <v>122</v>
       </c>
@@ -43151,7 +43113,7 @@
         <v>5032.880000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="79" t="s">
         <v>122</v>
       </c>
@@ -43188,7 +43150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="79" t="s">
         <v>123</v>
       </c>
@@ -43223,7 +43185,7 @@
       <c r="N160" s="98"/>
       <c r="O160" s="46"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="79" t="s">
         <v>123</v>
       </c>
@@ -43272,7 +43234,7 @@
         <v>7799.13</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="79" t="s">
         <v>123</v>
       </c>
@@ -43307,7 +43269,7 @@
       <c r="N162" s="98"/>
       <c r="O162" s="46"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="79" t="s">
         <v>124</v>
       </c>
@@ -43342,7 +43304,7 @@
       <c r="N163" s="98"/>
       <c r="O163" s="46"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="79" t="s">
         <v>124</v>
       </c>
@@ -43391,7 +43353,7 @@
         <v>19940.68</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>124</v>
       </c>
@@ -43426,7 +43388,7 @@
       <c r="N165" s="98"/>
       <c r="O165" s="46"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="79" t="s">
         <v>125</v>
       </c>
@@ -43461,7 +43423,7 @@
       <c r="N166" s="98"/>
       <c r="O166" s="46"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="79" t="s">
         <v>125</v>
       </c>
@@ -43510,7 +43472,7 @@
         <v>41598.07</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="79" t="s">
         <v>125</v>
       </c>
@@ -43547,7 +43509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="79" t="s">
         <v>126</v>
       </c>
@@ -43582,7 +43544,7 @@
       <c r="N169" s="98"/>
       <c r="O169" s="46"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="79" t="s">
         <v>126</v>
       </c>
@@ -43619,7 +43581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="79" t="s">
         <v>126</v>
       </c>
@@ -43654,7 +43616,7 @@
       <c r="N171" s="98"/>
       <c r="O171" s="46"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="79" t="s">
         <v>126</v>
       </c>
@@ -43689,7 +43651,7 @@
       <c r="N172" s="98"/>
       <c r="O172" s="46"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="79" t="s">
         <v>126</v>
       </c>
@@ -43738,7 +43700,7 @@
         <v>67810.14</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>126</v>
       </c>
@@ -43775,7 +43737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="79" t="s">
         <v>127</v>
       </c>
@@ -43810,7 +43772,7 @@
       <c r="N175" s="98"/>
       <c r="O175" s="46"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="79" t="s">
         <v>127</v>
       </c>
@@ -43859,7 +43821,7 @@
         <v>91730.16</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="79" t="s">
         <v>127</v>
       </c>
@@ -43896,7 +43858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="79" t="s">
         <v>128</v>
       </c>
@@ -43931,7 +43893,7 @@
       <c r="N178" s="98"/>
       <c r="O178" s="46"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="79" t="s">
         <v>128</v>
       </c>
@@ -43966,7 +43928,7 @@
       <c r="N179" s="98"/>
       <c r="O179" s="46"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="79" t="s">
         <v>128</v>
       </c>
@@ -44015,7 +43977,7 @@
         <v>24455.7</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="79" t="s">
         <v>128</v>
       </c>
@@ -44052,7 +44014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="79" t="s">
         <v>234</v>
       </c>
@@ -44087,7 +44049,7 @@
       <c r="N182" s="98"/>
       <c r="O182" s="46"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="79" t="s">
         <v>234</v>
       </c>
@@ -44122,7 +44084,7 @@
       <c r="N183" s="98"/>
       <c r="O183" s="46"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="79" t="s">
         <v>235</v>
       </c>
@@ -44157,7 +44119,7 @@
       <c r="N184" s="98"/>
       <c r="O184" s="46"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="79" t="s">
         <v>129</v>
       </c>
@@ -44200,7 +44162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="79" t="s">
         <v>129</v>
       </c>
@@ -44235,7 +44197,7 @@
       <c r="N186" s="98"/>
       <c r="O186" s="46"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="79" t="s">
         <v>129</v>
       </c>
@@ -44270,7 +44232,7 @@
       <c r="N187" s="98"/>
       <c r="O187" s="46"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="79" t="s">
         <v>129</v>
       </c>
@@ -44307,7 +44269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="79" t="s">
         <v>130</v>
       </c>
@@ -44356,7 +44318,7 @@
         <v>1331.32</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="79" t="s">
         <v>130</v>
       </c>
@@ -44391,7 +44353,7 @@
       <c r="N190" s="98"/>
       <c r="O190" s="46"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="79" t="s">
         <v>130</v>
       </c>
@@ -44428,7 +44390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="79" t="s">
         <v>131</v>
       </c>
@@ -44471,7 +44433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="79" t="s">
         <v>131</v>
       </c>
@@ -44508,7 +44470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="79" t="s">
         <v>132</v>
       </c>
@@ -44557,7 +44519,7 @@
         <v>9356.9699999999975</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="79" t="s">
         <v>132</v>
       </c>
@@ -44594,7 +44556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="79" t="s">
         <v>133</v>
       </c>
@@ -44643,7 +44605,7 @@
         <v>696.18</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="79" t="s">
         <v>133</v>
       </c>
@@ -44678,7 +44640,7 @@
       <c r="N197" s="98"/>
       <c r="O197" s="46"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="79" t="s">
         <v>133</v>
       </c>
@@ -44715,7 +44677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="79" t="s">
         <v>134</v>
       </c>
@@ -44764,7 +44726,7 @@
         <v>1979.7800000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="79" t="s">
         <v>134</v>
       </c>
@@ -44801,7 +44763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="79" t="s">
         <v>135</v>
       </c>
@@ -44850,7 +44812,7 @@
         <v>9352.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="79" t="s">
         <v>135</v>
       </c>
@@ -44885,7 +44847,7 @@
       <c r="N202" s="98"/>
       <c r="O202" s="46"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="79" t="s">
         <v>135</v>
       </c>
@@ -44920,7 +44882,7 @@
       <c r="N203" s="98"/>
       <c r="O203" s="46"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="79" t="s">
         <v>135</v>
       </c>
@@ -44957,7 +44919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="79" t="s">
         <v>236</v>
       </c>
@@ -45006,7 +44968,7 @@
         <v>52566</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="79" t="s">
         <v>136</v>
       </c>
@@ -45055,7 +45017,7 @@
         <v>4547.03</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="79" t="s">
         <v>136</v>
       </c>
@@ -45090,7 +45052,7 @@
       <c r="N207" s="98"/>
       <c r="O207" s="46"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="79" t="s">
         <v>136</v>
       </c>
@@ -45125,7 +45087,7 @@
       <c r="N208" s="98"/>
       <c r="O208" s="46"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="79" t="s">
         <v>137</v>
       </c>
@@ -45160,7 +45122,7 @@
       <c r="N209" s="98"/>
       <c r="O209" s="46"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="79" t="s">
         <v>137</v>
       </c>
@@ -45209,7 +45171,7 @@
         <v>1646.95</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="79" t="s">
         <v>137</v>
       </c>
@@ -45244,7 +45206,7 @@
       <c r="N211" s="98"/>
       <c r="O211" s="46"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="79" t="s">
         <v>237</v>
       </c>
@@ -45287,7 +45249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>138</v>
       </c>
@@ -45336,7 +45298,7 @@
         <v>2736.57</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="79" t="s">
         <v>138</v>
       </c>
@@ -45373,7 +45335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="79" t="s">
         <v>139</v>
       </c>
@@ -45408,7 +45370,7 @@
       <c r="N215" s="98"/>
       <c r="O215" s="46"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="79" t="s">
         <v>139</v>
       </c>
@@ -45457,7 +45419,7 @@
         <v>57242.97</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="79" t="s">
         <v>139</v>
       </c>
@@ -45492,7 +45454,7 @@
       <c r="N217" s="98"/>
       <c r="O217" s="46"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="79" t="s">
         <v>139</v>
       </c>
@@ -45529,7 +45491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="79" t="s">
         <v>140</v>
       </c>
@@ -45564,7 +45526,7 @@
       <c r="N219" s="98"/>
       <c r="O219" s="46"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="79" t="s">
         <v>140</v>
       </c>
@@ -45613,7 +45575,7 @@
         <v>23240.23</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>140</v>
       </c>
@@ -45648,7 +45610,7 @@
       <c r="N221" s="98"/>
       <c r="O221" s="46"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="79" t="s">
         <v>140</v>
       </c>
@@ -45685,7 +45647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="79" t="s">
         <v>141</v>
       </c>
@@ -45734,7 +45696,7 @@
         <v>13007.789999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="79" t="s">
         <v>141</v>
       </c>
@@ -45769,7 +45731,7 @@
       <c r="N224" s="98"/>
       <c r="O224" s="46"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="79" t="s">
         <v>141</v>
       </c>
@@ -45804,7 +45766,7 @@
       <c r="N225" s="98"/>
       <c r="O225" s="46"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="79" t="s">
         <v>142</v>
       </c>
@@ -45853,7 +45815,7 @@
         <v>5457.4400000000005</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="79" t="s">
         <v>142</v>
       </c>
@@ -45890,7 +45852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="79" t="s">
         <v>143</v>
       </c>
@@ -45939,7 +45901,7 @@
         <v>10093.319999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="79" t="s">
         <v>143</v>
       </c>
@@ -45976,7 +45938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="79" t="s">
         <v>144</v>
       </c>
@@ -46025,7 +45987,7 @@
         <v>12068.21</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="79" t="s">
         <v>144</v>
       </c>
@@ -46062,7 +46024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="79" t="s">
         <v>238</v>
       </c>
@@ -46097,7 +46059,7 @@
       <c r="N232" s="98"/>
       <c r="O232" s="46"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="79" t="s">
         <v>239</v>
       </c>
@@ -46132,7 +46094,7 @@
       <c r="N233" s="98"/>
       <c r="O233" s="46"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="79" t="s">
         <v>240</v>
       </c>
@@ -46167,7 +46129,7 @@
       <c r="N234" s="98"/>
       <c r="O234" s="46"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="79" t="s">
         <v>240</v>
       </c>
@@ -46202,7 +46164,7 @@
       <c r="N235" s="98"/>
       <c r="O235" s="46"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="79" t="s">
         <v>145</v>
       </c>
@@ -46251,7 +46213,7 @@
         <v>80268</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="79" t="s">
         <v>145</v>
       </c>
@@ -46286,7 +46248,7 @@
       <c r="N237" s="98"/>
       <c r="O237" s="46"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="79" t="s">
         <v>145</v>
       </c>
@@ -46323,7 +46285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="79" t="s">
         <v>146</v>
       </c>
@@ -46372,7 +46334,7 @@
         <v>42.429999999999993</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="79" t="s">
         <v>146</v>
       </c>
@@ -46409,7 +46371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="79" t="s">
         <v>147</v>
       </c>
@@ -46458,7 +46420,7 @@
         <v>3734.9</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="79" t="s">
         <v>147</v>
       </c>
@@ -46495,7 +46457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="79" t="s">
         <v>148</v>
       </c>
@@ -46544,7 +46506,7 @@
         <v>2604.2200000000003</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="79" t="s">
         <v>148</v>
       </c>
@@ -46581,7 +46543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="79" t="s">
         <v>149</v>
       </c>
@@ -46630,7 +46592,7 @@
         <v>4324.47</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="79" t="s">
         <v>149</v>
       </c>
@@ -46667,7 +46629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="79" t="s">
         <v>150</v>
       </c>
@@ -46716,7 +46678,7 @@
         <v>415.38</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>150</v>
       </c>
@@ -46751,7 +46713,7 @@
       <c r="N248" s="98"/>
       <c r="O248" s="46"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="79" t="s">
         <v>151</v>
       </c>
@@ -46800,7 +46762,7 @@
         <v>4769.1200000000008</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="79" t="s">
         <v>151</v>
       </c>
@@ -46837,7 +46799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="79" t="s">
         <v>152</v>
       </c>
@@ -46886,7 +46848,7 @@
         <v>4011.8699999999994</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="79" t="s">
         <v>152</v>
       </c>
@@ -46921,7 +46883,7 @@
       <c r="N252" s="98"/>
       <c r="O252" s="46"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="79" t="s">
         <v>152</v>
       </c>
@@ -46958,7 +46920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="79" t="s">
         <v>153</v>
       </c>
@@ -47007,7 +46969,7 @@
         <v>50827.700000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="79" t="s">
         <v>153</v>
       </c>
@@ -47042,7 +47004,7 @@
       <c r="N255" s="98"/>
       <c r="O255" s="46"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="79" t="s">
         <v>154</v>
       </c>
@@ -47091,7 +47053,7 @@
         <v>11252.199999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="79" t="s">
         <v>154</v>
       </c>
@@ -47128,7 +47090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="79" t="s">
         <v>155</v>
       </c>
@@ -47177,7 +47139,7 @@
         <v>57352.86</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="79" t="s">
         <v>155</v>
       </c>
@@ -47212,7 +47174,7 @@
       <c r="N259" s="98"/>
       <c r="O259" s="46"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="79" t="s">
         <v>155</v>
       </c>
@@ -47249,7 +47211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="79" t="s">
         <v>156</v>
       </c>
@@ -47298,7 +47260,7 @@
         <v>31248.510000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="79" t="s">
         <v>156</v>
       </c>
@@ -47333,7 +47295,7 @@
       <c r="N262" s="98"/>
       <c r="O262" s="46"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="79" t="s">
         <v>156</v>
       </c>
@@ -47370,7 +47332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="79" t="s">
         <v>156</v>
       </c>
@@ -47407,7 +47369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="79" t="s">
         <v>157</v>
       </c>
@@ -47442,7 +47404,7 @@
       <c r="N265" s="98"/>
       <c r="O265" s="46"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="79" t="s">
         <v>157</v>
       </c>
@@ -47491,7 +47453,7 @@
         <v>4575.9699999999993</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="79" t="s">
         <v>157</v>
       </c>
@@ -47534,7 +47496,7 @@
         <v>53353.8</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="79" t="s">
         <v>158</v>
       </c>
@@ -47569,7 +47531,7 @@
       <c r="N268" s="98"/>
       <c r="O268" s="46"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="79" t="s">
         <v>158</v>
       </c>
@@ -47618,7 +47580,7 @@
         <v>12242.970000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="79" t="s">
         <v>158</v>
       </c>
@@ -47655,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="79" t="s">
         <v>159</v>
       </c>
@@ -47690,7 +47652,7 @@
       <c r="N271" s="98"/>
       <c r="O271" s="46"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="79" t="s">
         <v>159</v>
       </c>
@@ -47739,7 +47701,7 @@
         <v>384889</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="79" t="s">
         <v>159</v>
       </c>
@@ -47776,7 +47738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="79" t="s">
         <v>160</v>
       </c>
@@ -47825,7 +47787,7 @@
         <v>145019.30000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>160</v>
       </c>
@@ -47868,7 +47830,7 @@
         <v>38465.69</v>
       </c>
     </row>
-    <row r="276" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="42" t="s">
         <v>161</v>
       </c>
@@ -47900,7 +47862,7 @@
       <c r="N276" s="56"/>
       <c r="O276" s="46"/>
     </row>
-    <row r="277" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="42" t="s">
         <v>161</v>
       </c>
@@ -47949,7 +47911,7 @@
         <v>1866.2100000000003</v>
       </c>
     </row>
-    <row r="278" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="42" t="s">
         <v>161</v>
       </c>
@@ -47983,7 +47945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="42" t="s">
         <v>162</v>
       </c>
@@ -48015,7 +47977,7 @@
       <c r="N279" s="56"/>
       <c r="O279" s="46"/>
     </row>
-    <row r="280" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="42" t="s">
         <v>162</v>
       </c>
@@ -48064,7 +48026,7 @@
         <v>1068.08</v>
       </c>
     </row>
-    <row r="281" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="42" t="s">
         <v>162</v>
       </c>
@@ -48098,7 +48060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="42" t="s">
         <v>163</v>
       </c>
@@ -48147,7 +48109,7 @@
         <v>544.42999999999995</v>
       </c>
     </row>
-    <row r="283" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="42" t="s">
         <v>163</v>
       </c>
@@ -48181,7 +48143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="42" t="s">
         <v>164</v>
       </c>
@@ -48230,7 +48192,7 @@
         <v>164.54</v>
       </c>
     </row>
-    <row r="285" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="42" t="s">
         <v>164</v>
       </c>
@@ -48262,7 +48224,7 @@
       <c r="N285" s="56"/>
       <c r="O285" s="46"/>
     </row>
-    <row r="286" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="42" t="s">
         <v>165</v>
       </c>
@@ -48311,7 +48273,7 @@
         <v>4086.01</v>
       </c>
     </row>
-    <row r="287" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="42" t="s">
         <v>165</v>
       </c>
@@ -48345,7 +48307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="42" t="s">
         <v>166</v>
       </c>
@@ -48377,7 +48339,7 @@
       <c r="N288" s="56"/>
       <c r="O288" s="46"/>
     </row>
-    <row r="289" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="42" t="s">
         <v>166</v>
       </c>
@@ -48426,7 +48388,7 @@
         <v>2927.28</v>
       </c>
     </row>
-    <row r="290" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="42" t="s">
         <v>166</v>
       </c>
@@ -48460,7 +48422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="42" t="s">
         <v>167</v>
       </c>
@@ -48509,7 +48471,7 @@
         <v>2805.3199999999993</v>
       </c>
     </row>
-    <row r="292" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="42" t="s">
         <v>167</v>
       </c>
@@ -48543,7 +48505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="42" t="s">
         <v>168</v>
       </c>
@@ -48575,7 +48537,7 @@
       <c r="N293" s="56"/>
       <c r="O293" s="46"/>
     </row>
-    <row r="294" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="42" t="s">
         <v>168</v>
       </c>
@@ -48607,7 +48569,7 @@
       <c r="N294" s="56"/>
       <c r="O294" s="46"/>
     </row>
-    <row r="295" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="42" t="s">
         <v>168</v>
       </c>
@@ -48656,7 +48618,7 @@
         <v>1670.3500000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="42" t="s">
         <v>168</v>
       </c>
@@ -48690,7 +48652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="42" t="s">
         <v>169</v>
       </c>
@@ -48722,7 +48684,7 @@
       <c r="N297" s="56"/>
       <c r="O297" s="46"/>
     </row>
-    <row r="298" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="42" t="s">
         <v>169</v>
       </c>
@@ -48771,7 +48733,7 @@
         <v>51580.58</v>
       </c>
     </row>
-    <row r="299" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="42" t="s">
         <v>169</v>
       </c>
@@ -48803,7 +48765,7 @@
       <c r="N299" s="56"/>
       <c r="O299" s="46"/>
     </row>
-    <row r="300" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="42" t="s">
         <v>169</v>
       </c>
@@ -48837,7 +48799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="42" t="s">
         <v>170</v>
       </c>
@@ -48869,7 +48831,7 @@
       <c r="N301" s="56"/>
       <c r="O301" s="46"/>
     </row>
-    <row r="302" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="42" t="s">
         <v>170</v>
       </c>
@@ -48918,7 +48880,7 @@
         <v>11214.23</v>
       </c>
     </row>
-    <row r="303" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="42" t="s">
         <v>170</v>
       </c>
@@ -48950,7 +48912,7 @@
       <c r="N303" s="56"/>
       <c r="O303" s="46"/>
     </row>
-    <row r="304" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="42" t="s">
         <v>171</v>
       </c>
@@ -48982,7 +48944,7 @@
       <c r="N304" s="56"/>
       <c r="O304" s="46"/>
     </row>
-    <row r="305" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="42" t="s">
         <v>171</v>
       </c>
@@ -49031,7 +48993,7 @@
         <v>15482.79</v>
       </c>
     </row>
-    <row r="306" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="42" t="s">
         <v>171</v>
       </c>
@@ -49063,7 +49025,7 @@
       <c r="N306" s="56"/>
       <c r="O306" s="46"/>
     </row>
-    <row r="307" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="42" t="s">
         <v>171</v>
       </c>
@@ -49097,7 +49059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="42" t="s">
         <v>172</v>
       </c>
@@ -49129,7 +49091,7 @@
       <c r="N308" s="56"/>
       <c r="O308" s="46"/>
     </row>
-    <row r="309" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="42" t="s">
         <v>172</v>
       </c>
@@ -49178,7 +49140,7 @@
         <v>10143.190000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="42" t="s">
         <v>172</v>
       </c>
@@ -49212,7 +49174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="42" t="s">
         <v>173</v>
       </c>
@@ -49252,7 +49214,7 @@
         <v>14.780000000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="42" t="s">
         <v>173</v>
       </c>
@@ -49301,7 +49263,7 @@
         <v>6503.6399999999994</v>
       </c>
     </row>
-    <row r="313" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="42" t="s">
         <v>173</v>
       </c>
@@ -49335,7 +49297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="42" t="s">
         <v>174</v>
       </c>
@@ -49384,7 +49346,7 @@
         <v>127462.45000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="42" t="s">
         <v>174</v>
       </c>
@@ -49418,7 +49380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="42" t="s">
         <v>175</v>
       </c>
@@ -49467,7 +49429,7 @@
         <v>14.780000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="42" t="s">
         <v>175</v>
       </c>
@@ -49501,7 +49463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="42" t="s">
         <v>176</v>
       </c>
@@ -49550,7 +49512,7 @@
         <v>131260.47999999998</v>
       </c>
     </row>
-    <row r="319" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="42" t="s">
         <v>176</v>
       </c>
@@ -49584,7 +49546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="42" t="s">
         <v>241</v>
       </c>
@@ -49633,7 +49595,7 @@
         <v>14229.609999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="42" t="s">
         <v>177</v>
       </c>
@@ -49682,7 +49644,7 @@
         <v>2749.13</v>
       </c>
     </row>
-    <row r="322" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="42" t="s">
         <v>177</v>
       </c>
@@ -49714,7 +49676,7 @@
       <c r="N322" s="56"/>
       <c r="O322" s="46"/>
     </row>
-    <row r="323" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="42" t="s">
         <v>178</v>
       </c>
@@ -49763,7 +49725,7 @@
         <v>46576.78</v>
       </c>
     </row>
-    <row r="324" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="42" t="s">
         <v>178</v>
       </c>
@@ -49797,7 +49759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="42" t="s">
         <v>179</v>
       </c>
@@ -49829,7 +49791,7 @@
       <c r="N325" s="56"/>
       <c r="O325" s="46"/>
     </row>
-    <row r="326" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="42" t="s">
         <v>179</v>
       </c>
@@ -49872,7 +49834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="42" t="s">
         <v>179</v>
       </c>
@@ -49912,7 +49874,7 @@
         <v>2057.25</v>
       </c>
     </row>
-    <row r="328" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="42" t="s">
         <v>179</v>
       </c>
@@ -49946,7 +49908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="42" t="s">
         <v>180</v>
       </c>
@@ -49989,7 +49951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="42" t="s">
         <v>180</v>
       </c>
@@ -50023,7 +49985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="42" t="s">
         <v>181</v>
       </c>
@@ -50072,7 +50034,7 @@
         <v>484.01</v>
       </c>
     </row>
-    <row r="332" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="42" t="s">
         <v>181</v>
       </c>
@@ -50106,7 +50068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="42" t="s">
         <v>182</v>
       </c>
@@ -50155,7 +50117,7 @@
         <v>232.08</v>
       </c>
     </row>
-    <row r="334" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="42" t="s">
         <v>182</v>
       </c>
@@ -50187,7 +50149,7 @@
       <c r="N334" s="56"/>
       <c r="O334" s="46"/>
     </row>
-    <row r="335" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="42" t="s">
         <v>183</v>
       </c>
@@ -50236,7 +50198,7 @@
         <v>6858.369999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="42" t="s">
         <v>183</v>
       </c>
@@ -50270,7 +50232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="42" t="s">
         <v>184</v>
       </c>
@@ -50302,7 +50264,7 @@
       <c r="N337" s="56"/>
       <c r="O337" s="46"/>
     </row>
-    <row r="338" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="42" t="s">
         <v>184</v>
       </c>
@@ -50351,7 +50313,7 @@
         <v>1031.26</v>
       </c>
     </row>
-    <row r="339" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="42" t="s">
         <v>184</v>
       </c>
@@ -50383,7 +50345,7 @@
       <c r="N339" s="56"/>
       <c r="O339" s="46"/>
     </row>
-    <row r="340" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="42" t="s">
         <v>184</v>
       </c>
@@ -50415,7 +50377,7 @@
       <c r="N340" s="56"/>
       <c r="O340" s="46"/>
     </row>
-    <row r="341" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="42" t="s">
         <v>184</v>
       </c>
@@ -50449,7 +50411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="42" t="s">
         <v>185</v>
       </c>
@@ -50481,7 +50443,7 @@
       <c r="N342" s="56"/>
       <c r="O342" s="46"/>
     </row>
-    <row r="343" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="42" t="s">
         <v>185</v>
       </c>
@@ -50513,7 +50475,7 @@
       <c r="N343" s="56"/>
       <c r="O343" s="46"/>
     </row>
-    <row r="344" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="42" t="s">
         <v>185</v>
       </c>
@@ -50562,7 +50524,7 @@
         <v>105928.62999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="42" t="s">
         <v>185</v>
       </c>
@@ -50596,7 +50558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="42" t="s">
         <v>186</v>
       </c>
@@ -50628,7 +50590,7 @@
       <c r="N346" s="56"/>
       <c r="O346" s="46"/>
     </row>
-    <row r="347" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="42" t="s">
         <v>186</v>
       </c>
@@ -50660,7 +50622,7 @@
       <c r="N347" s="56"/>
       <c r="O347" s="46"/>
     </row>
-    <row r="348" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="42" t="s">
         <v>186</v>
       </c>
@@ -50709,7 +50671,7 @@
         <v>164325.59</v>
       </c>
     </row>
-    <row r="349" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="42" t="s">
         <v>186</v>
       </c>
@@ -50741,7 +50703,7 @@
       <c r="N349" s="56"/>
       <c r="O349" s="46"/>
     </row>
-    <row r="350" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="42" t="s">
         <v>187</v>
       </c>
@@ -50773,7 +50735,7 @@
       <c r="N350" s="56"/>
       <c r="O350" s="46"/>
     </row>
-    <row r="351" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="42" t="s">
         <v>187</v>
       </c>
@@ -50805,7 +50767,7 @@
       <c r="N351" s="56"/>
       <c r="O351" s="46"/>
     </row>
-    <row r="352" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="42" t="s">
         <v>187</v>
       </c>
@@ -50837,7 +50799,7 @@
       <c r="N352" s="56"/>
       <c r="O352" s="46"/>
     </row>
-    <row r="353" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="42" t="s">
         <v>187</v>
       </c>
@@ -50886,7 +50848,7 @@
         <v>225009.16999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="42" t="s">
         <v>187</v>
       </c>
@@ -50920,7 +50882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="42" t="s">
         <v>187</v>
       </c>
@@ -50954,7 +50916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="42" t="s">
         <v>188</v>
       </c>
@@ -50986,7 +50948,7 @@
       <c r="N356" s="56"/>
       <c r="O356" s="46"/>
     </row>
-    <row r="357" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="42" t="s">
         <v>188</v>
       </c>
@@ -51018,7 +50980,7 @@
       <c r="N357" s="56"/>
       <c r="O357" s="46"/>
     </row>
-    <row r="358" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="42" t="s">
         <v>188</v>
       </c>
@@ -51050,7 +51012,7 @@
       <c r="N358" s="56"/>
       <c r="O358" s="46"/>
     </row>
-    <row r="359" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="42" t="s">
         <v>188</v>
       </c>
@@ -51099,7 +51061,7 @@
         <v>27035.64</v>
       </c>
     </row>
-    <row r="360" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="42" t="s">
         <v>188</v>
       </c>
@@ -51133,7 +51095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="42" t="s">
         <v>189</v>
       </c>
@@ -51165,7 +51127,7 @@
       <c r="N361" s="56"/>
       <c r="O361" s="46"/>
     </row>
-    <row r="362" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="42" t="s">
         <v>189</v>
       </c>
@@ -51214,7 +51176,7 @@
         <v>22234</v>
       </c>
     </row>
-    <row r="363" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="42" t="s">
         <v>189</v>
       </c>
@@ -51248,7 +51210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="42" t="s">
         <v>242</v>
       </c>
@@ -51280,7 +51242,7 @@
       <c r="N364" s="56"/>
       <c r="O364" s="46"/>
     </row>
-    <row r="365" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="42" t="s">
         <v>242</v>
       </c>
@@ -51312,7 +51274,7 @@
       <c r="N365" s="56"/>
       <c r="O365" s="46"/>
     </row>
-    <row r="366" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="42" t="s">
         <v>242</v>
       </c>
@@ -51361,7 +51323,7 @@
         <v>30178.77</v>
       </c>
     </row>
-    <row r="367" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="42" t="s">
         <v>190</v>
       </c>
@@ -51393,7 +51355,7 @@
       <c r="N367" s="56"/>
       <c r="O367" s="46"/>
     </row>
-    <row r="368" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="42" t="s">
         <v>190</v>
       </c>
@@ -51442,7 +51404,7 @@
         <v>50615.55</v>
       </c>
     </row>
-    <row r="369" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="42" t="s">
         <v>190</v>
       </c>
@@ -51474,7 +51436,7 @@
       <c r="N369" s="56"/>
       <c r="O369" s="46"/>
     </row>
-    <row r="370" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="42" t="s">
         <v>191</v>
       </c>
@@ -51506,7 +51468,7 @@
       <c r="N370" s="56"/>
       <c r="O370" s="46"/>
     </row>
-    <row r="371" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="42" t="s">
         <v>191</v>
       </c>
@@ -51538,7 +51500,7 @@
       <c r="N371" s="56"/>
       <c r="O371" s="46"/>
     </row>
-    <row r="372" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="42" t="s">
         <v>191</v>
       </c>
@@ -51587,7 +51549,7 @@
         <v>29915.039999999997</v>
       </c>
     </row>
-    <row r="373" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="42" t="s">
         <v>191</v>
       </c>
@@ -51619,7 +51581,7 @@
       <c r="N373" s="56"/>
       <c r="O373" s="46"/>
     </row>
-    <row r="374" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="42" t="s">
         <v>192</v>
       </c>
@@ -51651,7 +51613,7 @@
       <c r="N374" s="56"/>
       <c r="O374" s="46"/>
     </row>
-    <row r="375" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="42" t="s">
         <v>192</v>
       </c>
@@ -51683,7 +51645,7 @@
       <c r="N375" s="56"/>
       <c r="O375" s="46"/>
     </row>
-    <row r="376" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="42" t="s">
         <v>192</v>
       </c>
@@ -51732,7 +51694,7 @@
         <v>1238.32</v>
       </c>
     </row>
-    <row r="377" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="42" t="s">
         <v>192</v>
       </c>
@@ -51766,7 +51728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="42" t="s">
         <v>193</v>
       </c>
@@ -51809,7 +51771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="42" t="s">
         <v>193</v>
       </c>
@@ -51858,7 +51820,7 @@
         <v>179671.82</v>
       </c>
     </row>
-    <row r="380" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="42" t="s">
         <v>193</v>
       </c>
@@ -51890,7 +51852,7 @@
       <c r="N380" s="56"/>
       <c r="O380" s="46"/>
     </row>
-    <row r="381" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="42" t="s">
         <v>193</v>
       </c>
@@ -51924,7 +51886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="42" t="s">
         <v>194</v>
       </c>
@@ -51956,7 +51918,7 @@
       <c r="N382" s="56"/>
       <c r="O382" s="46"/>
     </row>
-    <row r="383" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="42" t="s">
         <v>194</v>
       </c>
@@ -52005,7 +51967,7 @@
         <v>1709.8200000000002</v>
       </c>
     </row>
-    <row r="384" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="42" t="s">
         <v>194</v>
       </c>
@@ -52037,7 +51999,7 @@
       <c r="N384" s="56"/>
       <c r="O384" s="46"/>
     </row>
-    <row r="385" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="42" t="s">
         <v>195</v>
       </c>
@@ -52077,7 +52039,7 @@
         <v>1068.28</v>
       </c>
     </row>
-    <row r="386" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="42" t="s">
         <v>195</v>
       </c>
@@ -52126,7 +52088,7 @@
         <v>25518.240000000002</v>
       </c>
     </row>
-    <row r="387" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="42" t="s">
         <v>195</v>
       </c>
@@ -52158,7 +52120,7 @@
       <c r="N387" s="56"/>
       <c r="O387" s="46"/>
     </row>
-    <row r="388" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="42" t="s">
         <v>195</v>
       </c>
@@ -52190,7 +52152,7 @@
       <c r="N388" s="56"/>
       <c r="O388" s="46"/>
     </row>
-    <row r="389" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="42" t="s">
         <v>196</v>
       </c>
@@ -52239,7 +52201,7 @@
         <v>3176.55</v>
       </c>
     </row>
-    <row r="390" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="42" t="s">
         <v>196</v>
       </c>
@@ -52273,7 +52235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="42" t="s">
         <v>197</v>
       </c>
@@ -52305,7 +52267,7 @@
       <c r="N391" s="56"/>
       <c r="O391" s="46"/>
     </row>
-    <row r="392" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="42" t="s">
         <v>197</v>
       </c>
@@ -52354,7 +52316,7 @@
         <v>6634.28</v>
       </c>
     </row>
-    <row r="393" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="42" t="s">
         <v>197</v>
       </c>
@@ -52386,7 +52348,7 @@
       <c r="N393" s="56"/>
       <c r="O393" s="46"/>
     </row>
-    <row r="394" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="42" t="s">
         <v>198</v>
       </c>
@@ -52420,7 +52382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="42" t="s">
         <v>198</v>
       </c>
@@ -52469,7 +52431,7 @@
         <v>9960.0299999999988</v>
       </c>
     </row>
-    <row r="396" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="42" t="s">
         <v>198</v>
       </c>
@@ -52503,7 +52465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="42" t="s">
         <v>199</v>
       </c>
@@ -52552,7 +52514,7 @@
         <v>38665.48000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="42" t="s">
         <v>199</v>
       </c>
@@ -52584,7 +52546,7 @@
       <c r="N398" s="56"/>
       <c r="O398" s="46"/>
     </row>
-    <row r="399" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="42" t="s">
         <v>199</v>
       </c>
@@ -52624,7 +52586,7 @@
         <v>81540</v>
       </c>
     </row>
-    <row r="400" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="42" t="s">
         <v>200</v>
       </c>
@@ -52673,7 +52635,7 @@
         <v>736.5</v>
       </c>
     </row>
-    <row r="401" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="42" t="s">
         <v>200</v>
       </c>
@@ -52705,7 +52667,7 @@
       <c r="N401" s="56"/>
       <c r="O401" s="46"/>
     </row>
-    <row r="402" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="42" t="s">
         <v>200</v>
       </c>
@@ -52739,7 +52701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="42" t="s">
         <v>201</v>
       </c>
@@ -52782,7 +52744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="42" t="s">
         <v>201</v>
       </c>
@@ -52816,7 +52778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="42" t="s">
         <v>202</v>
       </c>
@@ -52865,7 +52827,7 @@
         <v>12704.27</v>
       </c>
     </row>
-    <row r="406" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="42" t="s">
         <v>202</v>
       </c>
@@ -52897,7 +52859,7 @@
       <c r="N406" s="56"/>
       <c r="O406" s="46"/>
     </row>
-    <row r="407" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="42" t="s">
         <v>202</v>
       </c>
@@ -52937,7 +52899,7 @@
         <v>84171.42</v>
       </c>
     </row>
-    <row r="408" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="42" t="s">
         <v>203</v>
       </c>
@@ -52986,7 +52948,7 @@
         <v>13738.029999999995</v>
       </c>
     </row>
-    <row r="409" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="42" t="s">
         <v>203</v>
       </c>
@@ -53018,7 +52980,7 @@
       <c r="N409" s="56"/>
       <c r="O409" s="46"/>
     </row>
-    <row r="410" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="42" t="s">
         <v>203</v>
       </c>
@@ -53052,7 +53014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="42" t="s">
         <v>204</v>
       </c>
@@ -53101,7 +53063,7 @@
         <v>12390.670000000002</v>
       </c>
     </row>
-    <row r="412" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="42" t="s">
         <v>204</v>
       </c>
@@ -53135,7 +53097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="42" t="s">
         <v>205</v>
       </c>
@@ -53184,7 +53146,7 @@
         <v>44076.700000000012</v>
       </c>
     </row>
-    <row r="414" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="42" t="s">
         <v>205</v>
       </c>
@@ -53216,7 +53178,7 @@
       <c r="N414" s="56"/>
       <c r="O414" s="46"/>
     </row>
-    <row r="415" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="42" t="s">
         <v>205</v>
       </c>
@@ -53250,7 +53212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="42" t="s">
         <v>206</v>
       </c>
@@ -53299,7 +53261,7 @@
         <v>20087.560000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="42" t="s">
         <v>206</v>
       </c>
@@ -53333,7 +53295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="42" t="s">
         <v>207</v>
       </c>
@@ -53382,7 +53344,7 @@
         <v>23558.75</v>
       </c>
     </row>
-    <row r="419" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="42" t="s">
         <v>207</v>
       </c>
@@ -53414,7 +53376,7 @@
       <c r="N419" s="56"/>
       <c r="O419" s="46"/>
     </row>
-    <row r="420" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="42" t="s">
         <v>207</v>
       </c>
@@ -53448,7 +53410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="42" t="s">
         <v>208</v>
       </c>
@@ -53497,7 +53459,7 @@
         <v>26753.070000000003</v>
       </c>
     </row>
-    <row r="422" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="42" t="s">
         <v>208</v>
       </c>
@@ -53531,7 +53493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="42" t="s">
         <v>209</v>
       </c>
@@ -53580,7 +53542,7 @@
         <v>29553.84</v>
       </c>
     </row>
-    <row r="424" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="42" t="s">
         <v>209</v>
       </c>
@@ -53614,7 +53576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="42" t="s">
         <v>210</v>
       </c>
@@ -53663,7 +53625,7 @@
         <v>18049.37</v>
       </c>
     </row>
-    <row r="426" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="42" t="s">
         <v>210</v>
       </c>
@@ -53695,7 +53657,7 @@
       <c r="N426" s="56"/>
       <c r="O426" s="46"/>
     </row>
-    <row r="427" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="42" t="s">
         <v>210</v>
       </c>
@@ -53727,7 +53689,7 @@
       <c r="N427" s="56"/>
       <c r="O427" s="46"/>
     </row>
-    <row r="428" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="42" t="s">
         <v>210</v>
       </c>
@@ -53761,7 +53723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="42" t="s">
         <v>211</v>
       </c>
@@ -53793,7 +53755,7 @@
       <c r="N429" s="56"/>
       <c r="O429" s="46"/>
     </row>
-    <row r="430" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="42" t="s">
         <v>211</v>
       </c>
@@ -53842,7 +53804,7 @@
         <v>28218.04</v>
       </c>
     </row>
-    <row r="431" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="42" t="s">
         <v>211</v>
       </c>
@@ -53876,7 +53838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="42" t="s">
         <v>212</v>
       </c>
@@ -53908,7 +53870,7 @@
       <c r="N432" s="56"/>
       <c r="O432" s="46"/>
     </row>
-    <row r="433" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="42" t="s">
         <v>212</v>
       </c>
@@ -53942,7 +53904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="42" t="s">
         <v>212</v>
       </c>
@@ -53991,7 +53953,7 @@
         <v>49374.69</v>
       </c>
     </row>
-    <row r="435" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="42" t="s">
         <v>212</v>
       </c>
@@ -54025,7 +53987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="42" t="s">
         <v>212</v>
       </c>
@@ -54059,7 +54021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="42" t="s">
         <v>213</v>
       </c>
@@ -54091,7 +54053,7 @@
       <c r="N437" s="56"/>
       <c r="O437" s="46"/>
     </row>
-    <row r="438" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="42" t="s">
         <v>213</v>
       </c>
@@ -54140,7 +54102,7 @@
         <v>18095.030000000002</v>
       </c>
     </row>
-    <row r="439" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="42" t="s">
         <v>213</v>
       </c>
@@ -54172,7 +54134,7 @@
       <c r="N439" s="56"/>
       <c r="O439" s="46"/>
     </row>
-    <row r="440" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="42" t="s">
         <v>213</v>
       </c>
@@ -54206,7 +54168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="42" t="s">
         <v>214</v>
       </c>
@@ -54238,7 +54200,7 @@
       <c r="N441" s="56"/>
       <c r="O441" s="46"/>
     </row>
-    <row r="442" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="42" t="s">
         <v>214</v>
       </c>
@@ -54270,7 +54232,7 @@
       <c r="N442" s="56"/>
       <c r="O442" s="46"/>
     </row>
-    <row r="443" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="42" t="s">
         <v>214</v>
       </c>
@@ -54319,7 +54281,7 @@
         <v>13452.239999999998</v>
       </c>
     </row>
-    <row r="444" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="42" t="s">
         <v>214</v>
       </c>
@@ -54353,7 +54315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="42" t="s">
         <v>215</v>
       </c>
@@ -54402,7 +54364,7 @@
         <v>9628.26</v>
       </c>
     </row>
-    <row r="446" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="42" t="s">
         <v>215</v>
       </c>
@@ -54434,7 +54396,7 @@
       <c r="N446" s="56"/>
       <c r="O446" s="46"/>
     </row>
-    <row r="447" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="42" t="s">
         <v>215</v>
       </c>
@@ -54466,7 +54428,7 @@
       <c r="N447" s="56"/>
       <c r="O447" s="46"/>
     </row>
-    <row r="448" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="42" t="s">
         <v>215</v>
       </c>
@@ -54498,7 +54460,7 @@
       <c r="N448" s="56"/>
       <c r="O448" s="46"/>
     </row>
-    <row r="449" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="42" t="s">
         <v>215</v>
       </c>
@@ -54530,7 +54492,7 @@
       <c r="N449" s="56"/>
       <c r="O449" s="46"/>
     </row>
-    <row r="450" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="42" t="s">
         <v>215</v>
       </c>
@@ -54564,7 +54526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="42" t="s">
         <v>216</v>
       </c>
@@ -54613,7 +54575,7 @@
         <v>5232.3200000000006</v>
       </c>
     </row>
-    <row r="452" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="42" t="s">
         <v>216</v>
       </c>
@@ -54656,7 +54618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="42" t="s">
         <v>216</v>
       </c>
@@ -54688,7 +54650,7 @@
       <c r="N453" s="56"/>
       <c r="O453" s="46"/>
     </row>
-    <row r="454" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="42" t="s">
         <v>216</v>
       </c>
@@ -54720,7 +54682,7 @@
       <c r="N454" s="56"/>
       <c r="O454" s="46"/>
     </row>
-    <row r="455" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="42" t="s">
         <v>216</v>
       </c>
@@ -54754,7 +54716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="42" t="s">
         <v>216</v>
       </c>
@@ -54788,7 +54750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="42" t="s">
         <v>216</v>
       </c>
@@ -54820,7 +54782,7 @@
       <c r="N457" s="56"/>
       <c r="O457" s="46"/>
     </row>
-    <row r="458" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="42" t="s">
         <v>217</v>
       </c>
@@ -54869,7 +54831,7 @@
         <v>2728.2900000000004</v>
       </c>
     </row>
-    <row r="459" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="42" t="s">
         <v>217</v>
       </c>
@@ -54901,7 +54863,7 @@
       <c r="N459" s="56"/>
       <c r="O459" s="46"/>
     </row>
-    <row r="460" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="42" t="s">
         <v>217</v>
       </c>
@@ -54933,7 +54895,7 @@
       <c r="N460" s="56"/>
       <c r="O460" s="46"/>
     </row>
-    <row r="461" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="42" t="s">
         <v>217</v>
       </c>
@@ -54965,7 +54927,7 @@
       <c r="N461" s="56"/>
       <c r="O461" s="46"/>
     </row>
-    <row r="462" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="42" t="s">
         <v>217</v>
       </c>
@@ -54999,7 +54961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="42" t="s">
         <v>217</v>
       </c>
@@ -55031,7 +54993,7 @@
       <c r="N463" s="56"/>
       <c r="O463" s="46"/>
     </row>
-    <row r="464" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="42" t="s">
         <v>218</v>
       </c>
@@ -55080,7 +55042,7 @@
         <v>12751.800000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="42" t="s">
         <v>218</v>
       </c>
@@ -55114,7 +55076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="42" t="s">
         <v>218</v>
       </c>
@@ -55146,7 +55108,7 @@
       <c r="N466" s="56"/>
       <c r="O466" s="46"/>
     </row>
-    <row r="467" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="42" t="s">
         <v>218</v>
       </c>
@@ -55180,7 +55142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="42" t="s">
         <v>219</v>
       </c>
@@ -55229,7 +55191,7 @@
         <v>25008.400000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="42" t="s">
         <v>219</v>
       </c>
@@ -55263,7 +55225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="42" t="s">
         <v>219</v>
       </c>
@@ -55295,7 +55257,7 @@
       <c r="N470" s="56"/>
       <c r="O470" s="46"/>
     </row>
-    <row r="471" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="42" t="s">
         <v>219</v>
       </c>
@@ -55327,7 +55289,7 @@
       <c r="N471" s="56"/>
       <c r="O471" s="46"/>
     </row>
-    <row r="472" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="42" t="s">
         <v>219</v>
       </c>
@@ -55361,7 +55323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="42" t="s">
         <v>220</v>
       </c>
@@ -55410,7 +55372,7 @@
         <v>24264.98</v>
       </c>
     </row>
-    <row r="474" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="42" t="s">
         <v>220</v>
       </c>
@@ -55442,7 +55404,7 @@
       <c r="N474" s="56"/>
       <c r="O474" s="46"/>
     </row>
-    <row r="475" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="42" t="s">
         <v>220</v>
       </c>
@@ -55474,7 +55436,7 @@
       <c r="N475" s="56"/>
       <c r="O475" s="46"/>
     </row>
-    <row r="476" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="42" t="s">
         <v>220</v>
       </c>
@@ -55506,7 +55468,7 @@
       <c r="N476" s="56"/>
       <c r="O476" s="46"/>
     </row>
-    <row r="477" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="42" t="s">
         <v>220</v>
       </c>
@@ -55538,7 +55500,7 @@
       <c r="N477" s="56"/>
       <c r="O477" s="46"/>
     </row>
-    <row r="478" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="42" t="s">
         <v>221</v>
       </c>
@@ -55587,7 +55549,7 @@
         <v>1656.74</v>
       </c>
     </row>
-    <row r="479" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="42" t="s">
         <v>221</v>
       </c>
@@ -55619,7 +55581,7 @@
       <c r="N479" s="56"/>
       <c r="O479" s="46"/>
     </row>
-    <row r="480" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="42" t="s">
         <v>221</v>
       </c>
@@ -55662,7 +55624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="42" t="s">
         <v>221</v>
       </c>
@@ -55696,7 +55658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="42" t="s">
         <v>244</v>
       </c>
@@ -55745,7 +55707,7 @@
         <v>19635.66</v>
       </c>
     </row>
-    <row r="483" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="42" t="s">
         <v>222</v>
       </c>
@@ -55777,7 +55739,7 @@
       <c r="N483" s="56"/>
       <c r="O483" s="46"/>
     </row>
-    <row r="484" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="42" t="s">
         <v>222</v>
       </c>
@@ -55826,7 +55788,7 @@
         <v>17494.71</v>
       </c>
     </row>
-    <row r="485" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="42" t="s">
         <v>222</v>
       </c>
@@ -55860,7 +55822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="42" t="s">
         <v>223</v>
       </c>
@@ -55903,7 +55865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="42" t="s">
         <v>223</v>
       </c>
@@ -55935,7 +55897,7 @@
       <c r="N487" s="56"/>
       <c r="O487" s="46"/>
     </row>
-    <row r="488" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="42" t="s">
         <v>223</v>
       </c>
@@ -55969,7 +55931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="42" t="s">
         <v>245</v>
       </c>
@@ -56001,7 +55963,7 @@
       <c r="N489" s="56"/>
       <c r="O489" s="46"/>
     </row>
-    <row r="490" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="42" t="s">
         <v>224</v>
       </c>
@@ -56050,7 +56012,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="491" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="42" t="s">
         <v>224</v>
       </c>
@@ -56084,7 +56046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="42" t="s">
         <v>225</v>
       </c>
@@ -56133,7 +56095,7 @@
         <v>399.92000000000019</v>
       </c>
     </row>
-    <row r="493" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="42" t="s">
         <v>225</v>
       </c>
@@ -56167,7 +56129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="42" t="s">
         <v>226</v>
       </c>
@@ -56199,7 +56161,7 @@
       <c r="N494" s="56"/>
       <c r="O494" s="46"/>
     </row>
-    <row r="495" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="42" t="s">
         <v>226</v>
       </c>
@@ -56248,7 +56210,7 @@
         <v>54586.599999999991</v>
       </c>
     </row>
-    <row r="496" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="42" t="s">
         <v>226</v>
       </c>
@@ -56282,7 +56244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="42" t="s">
         <v>58</v>
       </c>
@@ -56316,7 +56278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="42" t="s">
         <v>246</v>
       </c>
@@ -56350,7 +56312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="42" t="s">
         <v>55</v>
       </c>
@@ -56384,7 +56346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="42" t="s">
         <v>247</v>
       </c>
@@ -56418,7 +56380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="42"/>
       <c r="C501" s="44"/>
       <c r="D501" s="45"/>
@@ -56437,7 +56399,7 @@
       <c r="N501" s="56"/>
       <c r="O501" s="46"/>
     </row>
-    <row r="502" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="42"/>
       <c r="C502" s="44"/>
       <c r="D502" s="45"/>
@@ -56456,7 +56418,7 @@
       <c r="N502" s="56"/>
       <c r="O502" s="46"/>
     </row>
-    <row r="503" spans="1:15" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="49"/>
       <c r="B503" s="50"/>
       <c r="C503" s="52" t="s">
@@ -56524,16 +56486,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="63fa969c-ac95-4033-87e0-78467e37564b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="92309ddc-3b1e-489e-97ba-af20c2443f26" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56783,22 +56741,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="63fa969c-ac95-4033-87e0-78467e37564b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="92309ddc-3b1e-489e-97ba-af20c2443f26" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E1C7A4-C38F-40A2-B731-4F1B1CF79EED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0535F88B-0318-4C3E-B043-29C5943E588B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="63fa969c-ac95-4033-87e0-78467e37564b"/>
-    <ds:schemaRef ds:uri="92309ddc-3b1e-489e-97ba-af20c2443f26"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -56824,9 +56782,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0535F88B-0318-4C3E-B043-29C5943E588B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E1C7A4-C38F-40A2-B731-4F1B1CF79EED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="63fa969c-ac95-4033-87e0-78467e37564b"/>
+    <ds:schemaRef ds:uri="92309ddc-3b1e-489e-97ba-af20c2443f26"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>